--- a/config_10.13/shoping_config_vivo.xlsx
+++ b/config_10.13/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -3747,9 +3747,6 @@
     <t>100万金币</t>
   </si>
   <si>
-    <t>1980万金币</t>
-  </si>
-  <si>
     <t>shop_gold_sum_desc|福利券兑换提示</t>
   </si>
   <si>
@@ -5220,6 +5217,1584 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>nil,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>584万钻石</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>￥1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.6万鲸币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>100钻=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万金币</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万鲸币</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>100钻=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万金币</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_6y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>120万鲸币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_15y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>240万鲸币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>400万鲸币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_50y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>784</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万鲸币</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3984</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万鲸币</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万鲸币</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确定消耗5000福利券来兑换\n500万金币？</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确定消耗1000福利券来兑换\n100万金币？</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>android</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2亿鲸币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7984万鲸币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9984亿鲸币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100钻=10万金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>是否确定消耗100福利券来兑换\n1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万金币？</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>200万鲸币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>670万鲸币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1320万鲸币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2040万鲸币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20万鲸币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>是否确定消耗100福利券来兑换\n1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万金币？</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,2,</t>
+  </si>
+  <si>
+    <t>600000,3,</t>
+  </si>
+  <si>
+    <t>48元-次日</t>
+  </si>
+  <si>
+    <t>4800000,3,</t>
+  </si>
+  <si>
+    <t>48元-三日</t>
+  </si>
+  <si>
+    <t>4800000,4,</t>
+  </si>
+  <si>
+    <t>98元-首日</t>
+  </si>
+  <si>
+    <t>98元-次日</t>
+  </si>
+  <si>
+    <t>98元-三日</t>
+  </si>
+  <si>
+    <t>{460000,520000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>198元-首日</t>
+  </si>
+  <si>
+    <t>198元-次日</t>
+  </si>
+  <si>
+    <t>19800000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>198元-三日</t>
+  </si>
+  <si>
+    <t>"1980万金币","锁定*6","最高500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{96000,1020000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（免费，小额，V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"鲸币宝箱抽奖券",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_cjlb_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_cjlb_3",</t>
+  </si>
+  <si>
+    <t>（V4-V7）</t>
+  </si>
+  <si>
+    <t>"prop_cjlb_4",</t>
+  </si>
+  <si>
+    <t>86400,3,0</t>
+  </si>
+  <si>
+    <t>"prop_cjlb_5",</t>
+  </si>
+  <si>
+    <t>"prop_cjlb_6",</t>
+  </si>
+  <si>
+    <t>（V8-V10）</t>
+  </si>
+  <si>
+    <t>"prop_cjlb_7",</t>
+  </si>
+  <si>
+    <t>"prop_cjlb_8",</t>
+  </si>
+  <si>
+    <t>"prop_cjlb_9",</t>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{16,20,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V4-V7）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{180,216,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1亿3140万金币","300万鱼币","爱心*520","排行榜积分*520",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_fish_drop_act_0","_common_rank_true_love_026_rank",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2580万金币","50万鱼币","爱心*147","排行榜积分*147",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1470万金币","30万鱼币","爱心*52","排行榜积分*52",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"520万金币","10万鱼币","爱心*28","排行榜积分*28",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5200000,100000,28,28,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>比翼双飞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"680万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白头偕老</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天长地久</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费福利券</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（免费，小额）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_title|名字，标题</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>超值礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>首冲249</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8元加赠</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼限时特惠198元高</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼限时特惠498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>全返礼包II</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归惊喜礼包1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3直通礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1-3用户48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4-6用户198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运银蛋（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运金蛋（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>体验彩蛋（V4-V10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊享月卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能风暴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>神龙之力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包新用户98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元幸运金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏畅玩卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP2直通礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP4直通礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>|备注</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费用户1元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费用户3元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费用户6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小额用户6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小额用户10元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小额用户18元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1-3用户18元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1-3用户98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4-7用户48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4-7用户98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4-7用户198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v8以上用户98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v8以上用户198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v8以上用户498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6元-首日</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","锁定*1","最高10万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{15000,21000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6元-次日</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","锁定*2","最高12万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{22000,26000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6元-三日</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","锁定*3","最高15万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{27000,33000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>48元-首日</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","锁定*2","最高80万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{122000,166000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","锁定*3","最高96万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{174000,210000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","锁定*4","最高120万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{220000,260000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","锁定*3","最高170万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{276000,312000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","锁定*4","最高200万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{362000,422000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","锁定*5","最高248万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","锁定*4","最高330万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{555000,633000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","锁定*5","最高400万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{762000,822000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_cjlb_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,3,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"鲸币宝箱抽奖券",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石宝箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（免费，小额，V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,2,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{480,516,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一生一世</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_fish_drop_act_0","_common_rank_true_love_026_rank",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>131400000,3000000,520,520,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我爱你</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5200万金币","100万鱼币","爱心*258","排行榜积分*258",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>52000000,1000000,258,258,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱我吧</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>25800000,500000,147,147,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一世情</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>14700000,300000,52,52,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>吾爱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"280万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>百年好合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6800000,-400,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1380万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2580万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,8,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10258,delay_permit_type="next_day",reset_time=0,trigger="start_trigger"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10259,last=10257,delay_permit_type="next_day",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10259,last=10258,delay_permit_type="next_day",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10261,delay_permit_type="next_day",reset_time=0,trigger="start_trigger"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10262,last=10260,delay_permit_type="next_day",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10262,last=10261,delay_permit_type="next_day",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10264,delay_permit_type="next_day",reset_time=0,trigger="start_trigger"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10265,last=10263,delay_permit_type="next_day",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10265,last=10264,delay_permit_type="next_day",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10267,delay_permit_type="next_day",reset_time=0,trigger="start_trigger"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10268,last=10266,delay_permit_type="next_day",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10268,last=10267,delay_permit_type="next_day",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "jrth_025_nor" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "jrth_025_v4" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "jrth_025_v8" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "lmqx_026_bblb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（免费，小额）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_mfcjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_xycd_sunshine",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_xycd_sunshine",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,-60,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,-80,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,3,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,5,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,8,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(V4-V10)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2800000,-200,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"680万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6800000,-400,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1380万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2580万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>25800000,-1200,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "xycd_028_xycd_v1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "xycd_028_xycd_v4" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2800000,-200,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6800000,-400,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,3,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V4-V7）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V8-V10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V8-V10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V8-V10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v4" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v8" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","锁定*5","每日领300000金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万金币","5福利券","锁定*1"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,5,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","10万-120万随机金币","话费碎片*20"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{108888,200000,7,200001,300000,3},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,1200000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,200,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{300000,400000,95,400000,500000,5},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6元礼包</t>
+  </si>
+  <si>
+    <t>"60万金币","3000小游戏币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_cwlb_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_cwlb_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,3000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20元礼包</t>
+  </si>
+  <si>
+    <t>"200万金币","1万小游戏币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","3万小游戏币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","10万小游戏币","抽奖券*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>198元礼包</t>
+  </si>
+  <si>
+    <t>"1980万金币","50万小游戏币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>498元礼包</t>
+  </si>
+  <si>
+    <t>"4980万金币","200万小游戏币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一帆风顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","10万金币","水滴*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_1"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_1"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,100000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>二龙飞腾</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","15万金币","水滴*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,150000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阳开泰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万金币","阳光*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_2"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_2"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>四季发财</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","60万金币","阳光*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,600000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>五福临门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2980万金币","90万金币","阳光*12",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_2"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>29800000,900000,12,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>六六大顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","150万金币","铁锹*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_3"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_3"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1500000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>七星高照</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","300万金币","铁锹*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,3000000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "031_gqfd_gift" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万鲸币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>1</t>
     </r>
@@ -5248,1581 +6823,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>nil,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,200,300</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>584万钻石</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>￥1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>98</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.6万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>100钻=1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万金币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>100钻=1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万金币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_6y</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>120万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_15y</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>240万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>400万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_50y</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>784</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3984</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否确定消耗5000福利券来兑换\n500万金币？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否确定消耗1000福利券来兑换\n100万金币？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>android</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2亿鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>7984万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.9984亿鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100钻=10万金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>是否确定消耗100福利券来兑换\n1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万金币？</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>200万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>670万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1320万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2040万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>是否确定消耗100福利券来兑换\n1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万金币？</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,2,</t>
-  </si>
-  <si>
-    <t>600000,3,</t>
-  </si>
-  <si>
-    <t>48元-次日</t>
-  </si>
-  <si>
-    <t>4800000,3,</t>
-  </si>
-  <si>
-    <t>48元-三日</t>
-  </si>
-  <si>
-    <t>4800000,4,</t>
-  </si>
-  <si>
-    <t>98元-首日</t>
-  </si>
-  <si>
-    <t>98元-次日</t>
-  </si>
-  <si>
-    <t>98元-三日</t>
-  </si>
-  <si>
-    <t>{460000,520000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>198元-首日</t>
-  </si>
-  <si>
-    <t>198元-次日</t>
-  </si>
-  <si>
-    <t>19800000,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>198元-三日</t>
-  </si>
-  <si>
-    <t>"1980万金币","锁定*6","最高500万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{96000,1020000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>白银宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（免费，小额，V1-V3）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"鲸币宝箱抽奖券",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_cjlb_2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_cjlb_3",</t>
-  </si>
-  <si>
-    <t>（V4-V7）</t>
-  </si>
-  <si>
-    <t>"prop_cjlb_4",</t>
-  </si>
-  <si>
-    <t>86400,3,0</t>
-  </si>
-  <si>
-    <t>"prop_cjlb_5",</t>
-  </si>
-  <si>
-    <t>"prop_cjlb_6",</t>
-  </si>
-  <si>
-    <t>（V8-V10）</t>
-  </si>
-  <si>
-    <t>"prop_cjlb_7",</t>
-  </si>
-  <si>
-    <t>"prop_cjlb_8",</t>
-  </si>
-  <si>
-    <t>"prop_cjlb_9",</t>
-  </si>
-  <si>
-    <t>"prop_fish_drop_act_0",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{16,20,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（V4-V7）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{180,216,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1亿3140万金币","300万鱼币","爱心*520","排行榜积分*520",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin","prop_fish_drop_act_0","_common_rank_true_love_026_rank",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2580万金币","50万鱼币","爱心*147","排行榜积分*147",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1470万金币","30万鱼币","爱心*52","排行榜积分*52",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"520万金币","10万鱼币","爱心*28","排行榜积分*28",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5200000,100000,28,28,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>比翼双飞</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"680万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>白头偕老</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>天长地久</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费福利券</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（免费，小额）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_title|名字，标题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>超值礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>首冲249</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8元加赠</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼限时特惠198元高</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼限时特惠498元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>全返礼包II</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>回归惊喜礼包1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP3直通礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1-3用户48元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v4-6用户198元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运银蛋（V1-V3）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运金蛋（V1-V3）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运彩蛋（V1-V3）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>体验彩蛋（V4-V10）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>尊享月卡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>核能风暴</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>神龙之力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日特惠礼包新用户98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1元幸运金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏畅玩卡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP2直通礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP4直通礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>|备注</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费用户1元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费用户3元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费用户6元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>小额用户6元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>小额用户10元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>小额用户18元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1-3用户18元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1-3用户98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v4-7用户48元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v4-7用户98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v4-7用户198元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v8以上用户98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v8以上用户198元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>v8以上用户498元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6元-首日</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","锁定*1","最高10万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{15000,21000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6元-次日</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","锁定*2","最高12万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{22000,26000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6元-三日</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","锁定*3","最高15万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{27000,33000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>48元-首日</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","锁定*2","最高80万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{122000,166000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","锁定*3","最高96万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{174000,210000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","锁定*4","最高120万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{220000,260000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","锁定*3","最高170万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{276000,312000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","锁定*4","最高200万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,4,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{362000,422000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","锁定*5","最高248万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","锁定*4","最高330万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,4,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{555000,633000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","锁定*5","最高400万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{762000,822000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,6,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>白银宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_cjlb_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,3,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"鲸币宝箱抽奖券",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（免费，小额，V1-V3）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,2,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_fish_drop_act_0",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{480,516,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>一生一世</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin","prop_fish_drop_act_0","_common_rank_true_love_026_rank",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>131400000,3000000,520,520,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>我爱你</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5200万金币","100万鱼币","爱心*258","排行榜积分*258",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>52000000,1000000,258,258,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱我吧</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>25800000,500000,147,147,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>一世情</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>14700000,300000,52,52,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>吾爱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"280万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_fish_drop_act_0",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>百年好合</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6800000,-400,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1380万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2580万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,8,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10258,delay_permit_type="next_day",reset_time=0,trigger="start_trigger"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10259,last=10257,delay_permit_type="next_day",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10259,last=10258,delay_permit_type="next_day",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10261,delay_permit_type="next_day",reset_time=0,trigger="start_trigger"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10262,last=10260,delay_permit_type="next_day",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10262,last=10261,delay_permit_type="next_day",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10264,delay_permit_type="next_day",reset_time=0,trigger="start_trigger"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10265,last=10263,delay_permit_type="next_day",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10265,last=10264,delay_permit_type="next_day",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10267,delay_permit_type="next_day",reset_time=0,trigger="start_trigger"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10268,last=10266,delay_permit_type="next_day",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{next=10268,last=10267,delay_permit_type="next_day",reset_time=0}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "jrth_025_nor" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "jrth_025_v4" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "jrth_025_v8" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "lmqx_026_bblb" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费话费</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（免费，小额）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"30万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_mfcjq",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运彩蛋</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运彩蛋</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（V1-V3）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（V1-V3）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_xycd_sunshine",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_xycd_sunshine",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000,-1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999999999,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,-60,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"100万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000,-80,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,3,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,5,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,8,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>(V4-V10)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2800000,-200,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"680万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6800000,-400,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1380万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2580万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>25800000,-1200,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "xycd_028_xycd_v1" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "xycd_028_xycd_v4" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2800000,-200,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6800000,-400,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋铜锤</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（V1-V3）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","铜锤",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_brass_hammer_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋银锤</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（V1-V3）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"300万金币","银锤",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_silver_hammer_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋金锤</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（V1-V3）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","金锤",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_gold_hammer_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,3,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋铜锤</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（V4-V7）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","铜锤",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_brass_hammer_2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","银锤",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_silver_hammer_2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋金锤</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","金锤",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_gold_hammer_2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（V8-V10）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","铜锤",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_brass_hammer_3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（V8-V10）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","银锤",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_silver_hammer_3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>（V8-V10）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","金锤",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_gold_hammer_3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v1" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v4" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v8" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","锁定*5","每日领300000金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10万金币","5福利券","锁定*1"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,5,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"100万金币","10万-120万随机金币","话费碎片*20"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_web_chip_huafei",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{108888,200000,7,200001,300000,3},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,1200000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_web_chip_huafei",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,200,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{300000,400000,95,400000,500000,5},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6元礼包</t>
-  </si>
-  <si>
-    <t>"60万金币","3000小游戏币","抽奖券*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_cwlb_cjq",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_cwlb_cjq",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,3000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20元礼包</t>
-  </si>
-  <si>
-    <t>"200万金币","1万小游戏币","抽奖券*4",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,10000,4,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","3万小游戏币","抽奖券*10",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,30000,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","10万小游戏币","抽奖券*20",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,100000,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>198元礼包</t>
-  </si>
-  <si>
-    <t>"1980万金币","50万小游戏币","抽奖券*30",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,500000,30,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>498元礼包</t>
-  </si>
-  <si>
-    <t>"4980万金币","200万小游戏币","抽奖券*50",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,2000000,50,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>一帆风顺</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","10万金币","水滴*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","jing_bi","prop_guess_apple_bet_1"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","jing_bi","prop_guess_apple_bet_1"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000,100000,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>二龙飞腾</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","15万金币","水滴*8",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,150000,8,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>三阳开泰</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","30万金币","阳光*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","jing_bi","prop_guess_apple_bet_2"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","jing_bi","prop_guess_apple_bet_2"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,300000,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>四季发财</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万金币","60万金币","阳光*8",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,600000,8,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>五福临门</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2980万金币","90万金币","阳光*12",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","jing_bi","prop_guess_apple_bet_2"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>29800000,900000,12,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>六六大顺</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万金币","150万金币","铁锹*2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","jing_bi","prop_guess_apple_bet_3"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","jing_bi","prop_guess_apple_bet_3"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,1500000,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>七星高照</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"9980万金币","300万金币","铁锹*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>99800000,3000000,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "031_gqfd_gift" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万鲸币",</t>
+    <t>1584万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7640,8 +7641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7682,7 +7683,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -7733,7 +7734,7 @@
         <v>30</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>31</v>
@@ -7797,7 +7798,7 @@
         <v>45</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>46</v>
@@ -7827,14 +7828,14 @@
         <v>1</v>
       </c>
       <c r="T2" s="34" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="U2" s="34" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="V2" s="11"/>
       <c r="W2" s="34" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>49</v>
@@ -7843,7 +7844,7 @@
         <v>636</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AC2" s="11">
         <v>1</v>
@@ -7879,7 +7880,7 @@
         <v>45</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>46</v>
@@ -7909,14 +7910,14 @@
         <v>2</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="U3" s="34" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="V3" s="11"/>
       <c r="W3" s="34" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="X3" s="11" t="s">
         <v>51</v>
@@ -7961,7 +7962,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>46</v>
@@ -7991,14 +7992,14 @@
         <v>3</v>
       </c>
       <c r="T4" s="34" t="s">
+        <v>1123</v>
+      </c>
+      <c r="U4" s="34" t="s">
         <v>1124</v>
-      </c>
-      <c r="U4" s="34" t="s">
-        <v>1125</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="34" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="X4" s="11" t="s">
         <v>52</v>
@@ -8043,7 +8044,7 @@
         <v>45</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>46</v>
@@ -8073,14 +8074,14 @@
         <v>4</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="U5" s="34" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="34" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>53</v>
@@ -8125,7 +8126,7 @@
         <v>45</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>46</v>
@@ -8155,14 +8156,14 @@
         <v>5</v>
       </c>
       <c r="T6" s="34" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="U6" s="34" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="34" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="X6" s="11" t="s">
         <v>54</v>
@@ -8207,7 +8208,7 @@
         <v>45</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>46</v>
@@ -8237,14 +8238,14 @@
         <v>7</v>
       </c>
       <c r="T7" s="34" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="U7" s="34" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="34" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>55</v>
@@ -8289,7 +8290,7 @@
         <v>45</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>46</v>
@@ -8319,14 +8320,14 @@
         <v>8</v>
       </c>
       <c r="T8" s="34" t="s">
+        <v>1128</v>
+      </c>
+      <c r="U8" s="34" t="s">
         <v>1129</v>
-      </c>
-      <c r="U8" s="34" t="s">
-        <v>1130</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="34" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="X8" s="11" t="s">
         <v>56</v>
@@ -8371,7 +8372,7 @@
         <v>45</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>46</v>
@@ -8401,13 +8402,13 @@
         <v>9</v>
       </c>
       <c r="T9" s="34" t="s">
+        <v>1130</v>
+      </c>
+      <c r="U9" s="34" t="s">
+        <v>1130</v>
+      </c>
+      <c r="W9" s="34" t="s">
         <v>1131</v>
-      </c>
-      <c r="U9" s="34" t="s">
-        <v>1131</v>
-      </c>
-      <c r="W9" s="34" t="s">
-        <v>1132</v>
       </c>
       <c r="X9" s="11" t="s">
         <v>57</v>
@@ -8452,7 +8453,7 @@
         <v>45</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>46</v>
@@ -8482,13 +8483,13 @@
         <v>10</v>
       </c>
       <c r="T10" s="34" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="U10" s="34" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="W10" s="34" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>58</v>
@@ -8535,7 +8536,7 @@
         <v>45</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>46</v>
@@ -8616,7 +8617,7 @@
         <v>45</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>46</v>
@@ -8697,7 +8698,7 @@
         <v>45</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>46</v>
@@ -8778,7 +8779,7 @@
         <v>45</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>46</v>
@@ -8859,7 +8860,7 @@
         <v>45</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>46</v>
@@ -8940,7 +8941,7 @@
         <v>45</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>46</v>
@@ -8970,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="U16" s="2">
         <v>66</v>
@@ -9014,7 +9015,7 @@
         <v>80</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>46</v>
@@ -9044,10 +9045,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>48</v>
@@ -9088,7 +9089,7 @@
         <v>80</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>46</v>
@@ -9118,10 +9119,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>48</v>
@@ -9162,7 +9163,7 @@
         <v>80</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>46</v>
@@ -9192,10 +9193,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>48</v>
@@ -9236,7 +9237,7 @@
         <v>80</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>46</v>
@@ -9266,10 +9267,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="U20" s="3" t="s">
         <v>1143</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>1144</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>48</v>
@@ -9310,7 +9311,7 @@
         <v>80</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>46</v>
@@ -9340,10 +9341,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>48</v>
@@ -9384,7 +9385,7 @@
         <v>80</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>46</v>
@@ -9414,10 +9415,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>48</v>
@@ -9458,7 +9459,7 @@
         <v>80</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>46</v>
@@ -9488,10 +9489,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>48</v>
@@ -9530,25 +9531,25 @@
         <v>10189</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H24" s="11">
         <v>19800</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>1152</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="L24" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>1154</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>1156</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -9569,16 +9570,16 @@
         <v>6</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="W24" s="34" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="Y24" s="11" t="s">
         <v>644</v>
@@ -9629,11 +9630,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W362" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="W356" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W374" sqref="W374"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -9695,10 +9696,10 @@
         <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>85</v>
@@ -10028,7 +10029,7 @@
         <v>112</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AG5" s="5">
         <v>1</v>
@@ -10851,7 +10852,7 @@
         <v>600</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>665</v>
@@ -10886,7 +10887,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="5" t="s">
@@ -12708,7 +12709,7 @@
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="K54" s="5">
         <v>-13</v>
@@ -12729,7 +12730,7 @@
         <v>210</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="V54" s="5" t="s">
         <v>529</v>
@@ -12815,7 +12816,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H56" s="37"/>
       <c r="I56" s="22" t="s">
@@ -13364,10 +13365,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="K66" s="5">
         <v>-4</v>
@@ -14004,7 +14005,7 @@
         <v>238</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -14022,10 +14023,10 @@
         <v>100</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="Q77" s="40" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>528</v>
@@ -14060,7 +14061,7 @@
         <v>239</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -14078,10 +14079,10 @@
         <v>1000</v>
       </c>
       <c r="P78" s="19" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="Q78" s="40" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="V78" s="19" t="s">
         <v>528</v>
@@ -14099,10 +14100,10 @@
         <v>80</v>
       </c>
       <c r="AB78" s="19" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="AC78" s="40" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="AG78" s="19">
         <v>1</v>
@@ -14122,7 +14123,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>836</v>
@@ -14187,7 +14188,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>837</v>
@@ -14276,10 +14277,10 @@
         <v>4800</v>
       </c>
       <c r="P81" s="19" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="Q81" s="40" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="V81" s="19" t="s">
         <v>528</v>
@@ -14294,10 +14295,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA81" s="19" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="AB81" s="19" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="AG81" s="19">
         <v>1</v>
@@ -14394,7 +14395,7 @@
         <v>4800</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="Q83" s="5" t="s">
         <v>697</v>
@@ -14450,7 +14451,7 @@
         <v>4800</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="Q84" s="5" t="s">
         <v>698</v>
@@ -14485,7 +14486,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I85" s="5" t="s">
         <v>841</v>
@@ -14506,10 +14507,10 @@
         <v>4800</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="V85" s="5" t="s">
         <v>530</v>
@@ -14541,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I86" s="5" t="s">
         <v>842</v>
@@ -14591,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I87" s="5" t="s">
         <v>843</v>
@@ -14612,10 +14613,10 @@
         <v>9600</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="V87" s="5" t="s">
         <v>530</v>
@@ -14892,7 +14893,7 @@
         <v>4800</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="Q92" s="5" t="s">
         <v>702</v>
@@ -15172,13 +15173,13 @@
         <v>4800</v>
       </c>
       <c r="P97" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="Q97" s="5" t="s">
         <v>260</v>
       </c>
       <c r="S97" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="T97" s="5" t="s">
         <v>261</v>
@@ -15234,13 +15235,13 @@
         <v>9800</v>
       </c>
       <c r="P98" s="5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="Q98" s="5" t="s">
         <v>263</v>
       </c>
       <c r="S98" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="T98" s="5" t="s">
         <v>264</v>
@@ -15296,13 +15297,13 @@
         <v>19800</v>
       </c>
       <c r="P99" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="Q99" s="5" t="s">
         <v>266</v>
       </c>
       <c r="S99" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="T99" s="5" t="s">
         <v>267</v>
@@ -15982,13 +15983,13 @@
         <v>3800</v>
       </c>
       <c r="P110" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="Q110" s="5" t="s">
         <v>276</v>
       </c>
       <c r="S110" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="T110" s="5" t="s">
         <v>277</v>
@@ -16044,13 +16045,13 @@
         <v>8800</v>
       </c>
       <c r="P111" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="Q111" s="5" t="s">
         <v>279</v>
       </c>
       <c r="S111" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="T111" s="5" t="s">
         <v>280</v>
@@ -16106,13 +16107,13 @@
         <v>18800</v>
       </c>
       <c r="P112" s="5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="Q112" s="5" t="s">
         <v>282</v>
       </c>
       <c r="S112" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="T112" s="5" t="s">
         <v>283</v>
@@ -16280,7 +16281,7 @@
         <v>9800</v>
       </c>
       <c r="P115" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="Q115" s="5" t="s">
         <v>290</v>
@@ -16336,13 +16337,13 @@
         <v>4800</v>
       </c>
       <c r="P116" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="Q116" s="5" t="s">
         <v>292</v>
       </c>
       <c r="S116" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="T116" s="5" t="s">
         <v>293</v>
@@ -16398,13 +16399,13 @@
         <v>9800</v>
       </c>
       <c r="P117" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="Q117" s="5" t="s">
         <v>263</v>
       </c>
       <c r="S117" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="T117" s="5" t="s">
         <v>264</v>
@@ -17073,7 +17074,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="K129" s="5">
         <v>-11</v>
@@ -17678,7 +17679,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="5" t="s">
@@ -17738,7 +17739,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="5" t="s">
@@ -18560,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I153" s="5" t="s">
         <v>871</v>
@@ -19242,7 +19243,7 @@
         <v>1</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I164" s="5" t="s">
         <v>957</v>
@@ -19496,7 +19497,7 @@
         <v>362</v>
       </c>
       <c r="I168" s="19" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="K168" s="19">
         <v>-28</v>
@@ -19514,10 +19515,10 @@
         <v>600</v>
       </c>
       <c r="P168" s="19" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Q168" s="19" t="s">
         <v>1073</v>
-      </c>
-      <c r="Q168" s="19" t="s">
-        <v>1074</v>
       </c>
       <c r="V168" s="19" t="s">
         <v>528</v>
@@ -19558,10 +19559,10 @@
         <v>1</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I169" s="19" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="K169" s="19">
         <v>-28</v>
@@ -19579,10 +19580,10 @@
         <v>3000</v>
       </c>
       <c r="P169" s="19" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="Q169" s="19" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="V169" s="19" t="s">
         <v>602</v>
@@ -19623,7 +19624,7 @@
         <v>363</v>
       </c>
       <c r="I170" s="19" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K170" s="19">
         <v>-28</v>
@@ -19641,10 +19642,10 @@
         <v>19800</v>
       </c>
       <c r="P170" s="19" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="Q170" s="19" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="V170" s="19" t="s">
         <v>602</v>
@@ -19682,13 +19683,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I171" s="19" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="K171" s="19">
         <v>-28</v>
@@ -19706,7 +19707,7 @@
         <v>100</v>
       </c>
       <c r="P171" s="19" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="Q171" s="19" t="s">
         <v>733</v>
@@ -19750,13 +19751,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I172" s="19" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="K172" s="19">
         <v>-28</v>
@@ -19774,7 +19775,7 @@
         <v>300</v>
       </c>
       <c r="P172" s="19" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="Q172" s="19" t="s">
         <v>734</v>
@@ -19818,13 +19819,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I173" s="19" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K173" s="19">
         <v>-28</v>
@@ -19842,7 +19843,7 @@
         <v>600</v>
       </c>
       <c r="P173" s="19" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="Q173" s="19" t="s">
         <v>735</v>
@@ -19886,13 +19887,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I174" s="19" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K174" s="19">
         <v>-28</v>
@@ -19910,7 +19911,7 @@
         <v>600</v>
       </c>
       <c r="P174" s="19" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="Q174" s="19" t="s">
         <v>736</v>
@@ -19954,13 +19955,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I175" s="19" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="K175" s="19">
         <v>-28</v>
@@ -19978,10 +19979,10 @@
         <v>1000</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="Q175" s="19" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V175" s="19" t="s">
         <v>531</v>
@@ -20022,13 +20023,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="I176" s="19" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="K176" s="19">
         <v>-28</v>
@@ -20046,7 +20047,7 @@
         <v>1800</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="Q176" s="19" t="s">
         <v>737</v>
@@ -20090,13 +20091,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I177" s="19" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="K177" s="19">
         <v>-28</v>
@@ -20114,7 +20115,7 @@
         <v>1800</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="Q177" s="19" t="s">
         <v>738</v>
@@ -20158,13 +20159,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="H178" s="19" t="s">
         <v>492</v>
       </c>
       <c r="I178" s="19" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="K178" s="19">
         <v>-28</v>
@@ -20182,7 +20183,7 @@
         <v>4800</v>
       </c>
       <c r="P178" s="19" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="Q178" s="19" t="s">
         <v>739</v>
@@ -20226,13 +20227,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I179" s="19" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="K179" s="19">
         <v>-28</v>
@@ -20250,7 +20251,7 @@
         <v>9800</v>
       </c>
       <c r="P179" s="19" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="Q179" s="19" t="s">
         <v>740</v>
@@ -20294,13 +20295,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I180" s="19" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K180" s="19">
         <v>-28</v>
@@ -20318,7 +20319,7 @@
         <v>4800</v>
       </c>
       <c r="P180" s="19" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="Q180" s="19" t="s">
         <v>739</v>
@@ -20362,13 +20363,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I181" s="19" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="K181" s="19">
         <v>-28</v>
@@ -20386,7 +20387,7 @@
         <v>9800</v>
       </c>
       <c r="P181" s="19" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="Q181" s="19" t="s">
         <v>741</v>
@@ -20430,13 +20431,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I182" s="19" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="K182" s="19">
         <v>-28</v>
@@ -20454,7 +20455,7 @@
         <v>19800</v>
       </c>
       <c r="P182" s="19" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="Q182" s="19" t="s">
         <v>742</v>
@@ -20498,13 +20499,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I183" s="19" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="K183" s="19">
         <v>-28</v>
@@ -20522,7 +20523,7 @@
         <v>9800</v>
       </c>
       <c r="P183" s="19" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="Q183" s="19" t="s">
         <v>740</v>
@@ -20566,13 +20567,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="I184" s="19" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="K184" s="19">
         <v>-28</v>
@@ -20590,7 +20591,7 @@
         <v>19800</v>
       </c>
       <c r="P184" s="19" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="Q184" s="19" t="s">
         <v>743</v>
@@ -20634,13 +20635,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I185" s="19" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="K185" s="19">
         <v>-28</v>
@@ -20658,7 +20659,7 @@
         <v>49800</v>
       </c>
       <c r="P185" s="19" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="Q185" s="19" t="s">
         <v>744</v>
@@ -24664,7 +24665,7 @@
         <v>1</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H247" s="8"/>
       <c r="I247" s="5" t="s">
@@ -24866,7 +24867,7 @@
       </c>
       <c r="H250" s="43"/>
       <c r="I250" s="19" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="K250" s="19">
         <v>-28</v>
@@ -24887,7 +24888,7 @@
         <v>448</v>
       </c>
       <c r="Q250" s="19" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="V250" s="19" t="s">
         <v>528</v>
@@ -24946,7 +24947,7 @@
         <v>600</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="Q251" s="5" t="s">
         <v>796</v>
@@ -25117,7 +25118,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I254" s="5" t="s">
         <v>960</v>
@@ -25312,7 +25313,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I257" s="5" t="s">
         <v>895</v>
@@ -25835,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I265" s="5" t="s">
         <v>901</v>
@@ -26095,7 +26096,7 @@
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I269" s="5" t="s">
         <v>903</v>
@@ -26617,7 +26618,7 @@
         <v>0</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I277" s="5" t="s">
         <v>907</v>
@@ -26682,7 +26683,7 @@
         <v>0</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I278" s="5" t="s">
         <v>908</v>
@@ -26747,7 +26748,7 @@
         <v>0</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I279" s="5" t="s">
         <v>909</v>
@@ -26812,7 +26813,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I280" s="5" t="s">
         <v>906</v>
@@ -29301,10 +29302,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="K320" s="5">
         <v>-25</v>
@@ -29357,7 +29358,7 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I321" s="5" t="s">
         <v>933</v>
@@ -29419,7 +29420,7 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I322" s="5" t="s">
         <v>627</v>
@@ -29484,11 +29485,11 @@
         <v>1</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J323" s="19"/>
       <c r="K323" s="19">
@@ -29507,10 +29508,10 @@
         <v>600</v>
       </c>
       <c r="P323" s="19" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="Q323" s="19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="R323" s="19"/>
       <c r="S323" s="19"/>
@@ -29567,11 +29568,11 @@
         <v>1</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J324" s="19"/>
       <c r="K324" s="19">
@@ -29590,7 +29591,7 @@
         <v>4800</v>
       </c>
       <c r="P324" s="19" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="Q324" s="19" t="s">
         <v>739</v>
@@ -29650,11 +29651,11 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J325" s="19"/>
       <c r="K325" s="19">
@@ -29673,7 +29674,7 @@
         <v>9800</v>
       </c>
       <c r="P325" s="19" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="Q325" s="19" t="s">
         <v>740</v>
@@ -29730,10 +29731,10 @@
         <v>1</v>
       </c>
       <c r="G326" s="41" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I326" s="41" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="K326" s="41">
         <v>-4</v>
@@ -29745,13 +29746,13 @@
         <v>0</v>
       </c>
       <c r="N326" s="41" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O326" s="41">
         <v>100</v>
       </c>
       <c r="V326" s="41" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="W326" s="41">
         <v>9999999</v>
@@ -29763,13 +29764,13 @@
         <v>2552233600</v>
       </c>
       <c r="AA326" s="41" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AB326" s="41" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AC326" s="42" t="s">
         <v>1026</v>
-      </c>
-      <c r="AC326" s="42" t="s">
-        <v>1027</v>
       </c>
       <c r="AG326" s="41">
         <v>1</v>
@@ -29789,10 +29790,10 @@
         <v>1</v>
       </c>
       <c r="G327" s="44" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="I327" s="44" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K327" s="44">
         <v>-31</v>
@@ -29804,19 +29805,19 @@
         <v>0</v>
       </c>
       <c r="N327" s="44" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O327" s="44">
         <v>9900</v>
       </c>
       <c r="P327" s="44" t="s">
+        <v>1031</v>
+      </c>
+      <c r="Q327" s="44" t="s">
+        <v>1067</v>
+      </c>
+      <c r="V327" s="44" t="s">
         <v>1032</v>
-      </c>
-      <c r="Q327" s="44" t="s">
-        <v>1068</v>
-      </c>
-      <c r="V327" s="44" t="s">
-        <v>1033</v>
       </c>
       <c r="W327" s="44">
         <v>99999999</v>
@@ -29854,11 +29855,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="44" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H328" s="44"/>
       <c r="I328" s="44" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="J328" s="44"/>
       <c r="K328" s="44">
@@ -29871,23 +29872,23 @@
         <v>0</v>
       </c>
       <c r="N328" s="44" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O328" s="44">
         <v>600</v>
       </c>
       <c r="P328" s="44" t="s">
+        <v>1054</v>
+      </c>
+      <c r="Q328" s="44" t="s">
         <v>1055</v>
-      </c>
-      <c r="Q328" s="44" t="s">
-        <v>1056</v>
       </c>
       <c r="R328" s="44"/>
       <c r="S328" s="44"/>
       <c r="T328" s="44"/>
       <c r="U328" s="44"/>
       <c r="V328" s="44" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="W328" s="44">
         <v>99999999</v>
@@ -29936,11 +29937,11 @@
         <v>1</v>
       </c>
       <c r="G329" s="44" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H329" s="44"/>
       <c r="I329" s="44" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="J329" s="44"/>
       <c r="K329" s="44">
@@ -29953,23 +29954,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="44" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O329" s="44">
         <v>2800</v>
       </c>
       <c r="P329" s="44" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="Q329" s="44" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="R329" s="44"/>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
       <c r="U329" s="44"/>
       <c r="V329" s="44" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="W329" s="44">
         <v>99999999</v>
@@ -30018,11 +30019,11 @@
         <v>1</v>
       </c>
       <c r="G330" s="44" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H330" s="44"/>
       <c r="I330" s="44" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="J330" s="44"/>
       <c r="K330" s="44">
@@ -30035,23 +30036,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="44" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O330" s="44">
         <v>4800</v>
       </c>
       <c r="P330" s="44" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="Q330" s="44" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="R330" s="44"/>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
       <c r="U330" s="44"/>
       <c r="V330" s="44" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="W330" s="44">
         <v>99999999</v>
@@ -30100,11 +30101,11 @@
         <v>1</v>
       </c>
       <c r="G331" s="44" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H331" s="44"/>
       <c r="I331" s="44" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="J331" s="44"/>
       <c r="K331" s="44">
@@ -30117,23 +30118,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="44" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O331" s="44">
         <v>9900</v>
       </c>
       <c r="P331" s="44" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="Q331" s="44" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="R331" s="44"/>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
       <c r="U331" s="44"/>
       <c r="V331" s="44" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="W331" s="44">
         <v>99999999</v>
@@ -30182,11 +30183,11 @@
         <v>1</v>
       </c>
       <c r="G332" s="44" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H332" s="44"/>
       <c r="I332" s="44" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="J332" s="44"/>
       <c r="K332" s="44">
@@ -30199,23 +30200,23 @@
         <v>0</v>
       </c>
       <c r="N332" s="44" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O332" s="44">
         <v>19800</v>
       </c>
       <c r="P332" s="44" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="Q332" s="44" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="R332" s="44"/>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
       <c r="U332" s="44"/>
       <c r="V332" s="44" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="W332" s="44">
         <v>99999999</v>
@@ -30264,11 +30265,11 @@
         <v>1</v>
       </c>
       <c r="G333" s="44" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H333" s="44"/>
       <c r="I333" s="44" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="J333" s="44"/>
       <c r="K333" s="44">
@@ -30281,23 +30282,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="44" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O333" s="44">
         <v>29800</v>
       </c>
       <c r="P333" s="44" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="Q333" s="44" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="R333" s="44"/>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
       <c r="U333" s="44"/>
       <c r="V333" s="44" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="W333" s="44">
         <v>99999999</v>
@@ -30346,11 +30347,11 @@
         <v>1</v>
       </c>
       <c r="G334" s="44" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H334" s="44"/>
       <c r="I334" s="44" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="J334" s="44"/>
       <c r="K334" s="44">
@@ -30363,23 +30364,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="44" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O334" s="44">
         <v>39800</v>
       </c>
       <c r="P334" s="44" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="Q334" s="44" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="R334" s="44"/>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
       <c r="U334" s="44"/>
       <c r="V334" s="44" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="W334" s="44">
         <v>99999999</v>
@@ -30428,11 +30429,11 @@
         <v>1</v>
       </c>
       <c r="G335" s="44" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H335" s="44"/>
       <c r="I335" s="44" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="J335" s="44"/>
       <c r="K335" s="44">
@@ -30445,23 +30446,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="44" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O335" s="44">
         <v>49800</v>
       </c>
       <c r="P335" s="44" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="Q335" s="44" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="R335" s="44"/>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
       <c r="U335" s="44"/>
       <c r="V335" s="44" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="W335" s="44">
         <v>99999999</v>
@@ -30510,11 +30511,11 @@
         <v>1</v>
       </c>
       <c r="G336" s="44" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H336" s="44"/>
       <c r="I336" s="44" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="J336" s="44"/>
       <c r="K336" s="44">
@@ -30527,23 +30528,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="44" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O336" s="44">
         <v>59800</v>
       </c>
       <c r="P336" s="44" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="Q336" s="44" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="R336" s="44"/>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
       <c r="U336" s="44"/>
       <c r="V336" s="44" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="W336" s="44">
         <v>99999999</v>
@@ -30592,11 +30593,11 @@
         <v>1</v>
       </c>
       <c r="G337" s="44" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H337" s="44"/>
       <c r="I337" s="44" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="J337" s="44"/>
       <c r="K337" s="44">
@@ -30609,23 +30610,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="44" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O337" s="44">
         <v>69800</v>
       </c>
       <c r="P337" s="44" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="Q337" s="44" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="R337" s="44"/>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
       <c r="U337" s="44"/>
       <c r="V337" s="44" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="W337" s="44">
         <v>99999999</v>
@@ -30671,10 +30672,10 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I338" s="19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="K338" s="19">
         <v>-31</v>
@@ -30692,10 +30693,10 @@
         <v>19800</v>
       </c>
       <c r="P338" s="19" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="Q338" s="19" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="V338" s="19" t="s">
         <v>528</v>
@@ -30710,10 +30711,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA338" s="19" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AB338" s="19" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AG338" s="19">
         <v>1</v>
@@ -30746,7 +30747,7 @@
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="J339" s="19"/>
       <c r="K339" s="19">
@@ -30765,10 +30766,10 @@
         <v>30000</v>
       </c>
       <c r="P339" s="19" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="Q339" s="19" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="R339" s="19"/>
       <c r="S339" s="19"/>
@@ -30788,10 +30789,10 @@
       </c>
       <c r="Z339" s="19"/>
       <c r="AA339" s="19" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AB339" s="19" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AC339" s="19"/>
       <c r="AD339" s="19"/>
@@ -30826,11 +30827,11 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="J340" s="19"/>
       <c r="K340" s="19">
@@ -30849,10 +30850,10 @@
         <v>78000</v>
       </c>
       <c r="P340" s="19" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="Q340" s="19" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="R340" s="19"/>
       <c r="S340" s="19"/>
@@ -30872,10 +30873,10 @@
       </c>
       <c r="Z340" s="19"/>
       <c r="AA340" s="19" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AB340" s="19" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AC340" s="19"/>
       <c r="AD340" s="19"/>
@@ -30907,11 +30908,11 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="5" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="K341" s="5">
         <v>-31</v>
@@ -30923,19 +30924,19 @@
         <v>0</v>
       </c>
       <c r="N341" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O341" s="5">
         <v>600</v>
       </c>
       <c r="P341" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="Q341" s="10" t="s">
+        <v>1278</v>
+      </c>
+      <c r="V341" s="5" t="s">
         <v>1279</v>
-      </c>
-      <c r="Q341" s="10" t="s">
-        <v>1280</v>
-      </c>
-      <c r="V341" s="5" t="s">
-        <v>1281</v>
       </c>
       <c r="W341" s="5">
         <v>9999999</v>
@@ -30950,10 +30951,10 @@
         <v>26</v>
       </c>
       <c r="AA341" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="AB341" s="5" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="AG341" s="5">
         <v>1</v>
@@ -30979,10 +30980,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="K342" s="5">
         <v>-31</v>
@@ -30994,19 +30995,19 @@
         <v>0</v>
       </c>
       <c r="N342" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O342" s="5">
         <v>600</v>
       </c>
       <c r="P342" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="Q342" s="10" t="s">
+        <v>1185</v>
+      </c>
+      <c r="V342" s="5" t="s">
         <v>1279</v>
-      </c>
-      <c r="Q342" s="10" t="s">
-        <v>1187</v>
-      </c>
-      <c r="V342" s="5" t="s">
-        <v>1281</v>
       </c>
       <c r="W342" s="5">
         <v>9999999</v>
@@ -31021,10 +31022,10 @@
         <v>27</v>
       </c>
       <c r="AA342" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="AG342" s="5">
         <v>1</v>
@@ -31050,10 +31051,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="K343" s="5">
         <v>-31</v>
@@ -31065,19 +31066,19 @@
         <v>0</v>
       </c>
       <c r="N343" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O343" s="5">
         <v>600</v>
       </c>
       <c r="P343" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="Q343" s="10" t="s">
+        <v>1186</v>
+      </c>
+      <c r="V343" s="5" t="s">
         <v>1279</v>
-      </c>
-      <c r="Q343" s="10" t="s">
-        <v>1188</v>
-      </c>
-      <c r="V343" s="5" t="s">
-        <v>1281</v>
       </c>
       <c r="W343" s="5">
         <v>9999999</v>
@@ -31092,10 +31093,10 @@
         <v>28</v>
       </c>
       <c r="AA343" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="AG343" s="5">
         <v>1</v>
@@ -31121,10 +31122,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="I344" s="5" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="K344" s="5">
         <v>-31</v>
@@ -31136,19 +31137,19 @@
         <v>0</v>
       </c>
       <c r="N344" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O344" s="5">
         <v>4800</v>
       </c>
       <c r="P344" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="Q344" s="10" t="s">
+        <v>1290</v>
+      </c>
+      <c r="V344" s="5" t="s">
         <v>1279</v>
-      </c>
-      <c r="Q344" s="10" t="s">
-        <v>1292</v>
-      </c>
-      <c r="V344" s="5" t="s">
-        <v>1281</v>
       </c>
       <c r="W344" s="5">
         <v>9999999</v>
@@ -31163,10 +31164,10 @@
         <v>29</v>
       </c>
       <c r="AA344" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="AG344" s="5">
         <v>1</v>
@@ -31192,10 +31193,10 @@
         <v>1</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="K345" s="5">
         <v>-31</v>
@@ -31207,19 +31208,19 @@
         <v>0</v>
       </c>
       <c r="N345" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O345" s="5">
         <v>4800</v>
       </c>
       <c r="P345" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="Q345" s="10" t="s">
+        <v>1188</v>
+      </c>
+      <c r="V345" s="5" t="s">
         <v>1279</v>
-      </c>
-      <c r="Q345" s="10" t="s">
-        <v>1190</v>
-      </c>
-      <c r="V345" s="5" t="s">
-        <v>1281</v>
       </c>
       <c r="W345" s="5">
         <v>9999999</v>
@@ -31234,10 +31235,10 @@
         <v>30</v>
       </c>
       <c r="AA345" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="AG345" s="5">
         <v>1</v>
@@ -31263,10 +31264,10 @@
         <v>1</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="K346" s="5">
         <v>-31</v>
@@ -31278,19 +31279,19 @@
         <v>0</v>
       </c>
       <c r="N346" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O346" s="5">
         <v>4800</v>
       </c>
       <c r="P346" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="Q346" s="10" t="s">
+        <v>1190</v>
+      </c>
+      <c r="V346" s="5" t="s">
         <v>1279</v>
-      </c>
-      <c r="Q346" s="10" t="s">
-        <v>1192</v>
-      </c>
-      <c r="V346" s="5" t="s">
-        <v>1281</v>
       </c>
       <c r="W346" s="5">
         <v>9999999</v>
@@ -31305,10 +31306,10 @@
         <v>31</v>
       </c>
       <c r="AA346" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="AG346" s="5">
         <v>1</v>
@@ -31334,10 +31335,10 @@
         <v>1</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="K347" s="5">
         <v>-31</v>
@@ -31349,19 +31350,19 @@
         <v>0</v>
       </c>
       <c r="N347" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O347" s="5">
         <v>9800</v>
       </c>
       <c r="P347" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="Q347" s="10" t="s">
+        <v>1297</v>
+      </c>
+      <c r="V347" s="5" t="s">
         <v>1279</v>
-      </c>
-      <c r="Q347" s="10" t="s">
-        <v>1299</v>
-      </c>
-      <c r="V347" s="5" t="s">
-        <v>1281</v>
       </c>
       <c r="W347" s="5">
         <v>9999999</v>
@@ -31376,10 +31377,10 @@
         <v>32</v>
       </c>
       <c r="AA347" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="AG347" s="5">
         <v>1</v>
@@ -31405,10 +31406,10 @@
         <v>1</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="K348" s="5">
         <v>-31</v>
@@ -31420,19 +31421,19 @@
         <v>0</v>
       </c>
       <c r="N348" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O348" s="5">
         <v>9800</v>
       </c>
       <c r="P348" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="Q348" s="10" t="s">
+        <v>1300</v>
+      </c>
+      <c r="V348" s="5" t="s">
         <v>1279</v>
-      </c>
-      <c r="Q348" s="10" t="s">
-        <v>1302</v>
-      </c>
-      <c r="V348" s="5" t="s">
-        <v>1281</v>
       </c>
       <c r="W348" s="5">
         <v>9999999</v>
@@ -31447,10 +31448,10 @@
         <v>33</v>
       </c>
       <c r="AA348" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="AG348" s="5">
         <v>1</v>
@@ -31476,10 +31477,10 @@
         <v>1</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="I349" s="5" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="K349" s="5">
         <v>-31</v>
@@ -31497,13 +31498,13 @@
         <v>9800</v>
       </c>
       <c r="P349" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="Q349" s="10" t="s">
+        <v>1303</v>
+      </c>
+      <c r="V349" s="5" t="s">
         <v>1279</v>
-      </c>
-      <c r="Q349" s="10" t="s">
-        <v>1305</v>
-      </c>
-      <c r="V349" s="5" t="s">
-        <v>1281</v>
       </c>
       <c r="W349" s="5">
         <v>9999999</v>
@@ -31518,10 +31519,10 @@
         <v>34</v>
       </c>
       <c r="AA349" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="AG349" s="5">
         <v>1</v>
@@ -31547,10 +31548,10 @@
         <v>1</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="K350" s="5">
         <v>-31</v>
@@ -31568,13 +31569,13 @@
         <v>19800</v>
       </c>
       <c r="P350" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="Q350" s="10" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="V350" s="5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="W350" s="5">
         <v>9999999</v>
@@ -31592,7 +31593,7 @@
         <v>448</v>
       </c>
       <c r="AB350" s="5" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="AG350" s="5">
         <v>1</v>
@@ -31618,10 +31619,10 @@
         <v>1</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I351" s="5" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="K351" s="5">
         <v>-31</v>
@@ -31633,19 +31634,19 @@
         <v>0</v>
       </c>
       <c r="N351" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O351" s="5">
         <v>19800</v>
       </c>
       <c r="P351" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="Q351" s="10" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="V351" s="5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="W351" s="5">
         <v>9999999</v>
@@ -31663,7 +31664,7 @@
         <v>448</v>
       </c>
       <c r="AB351" s="5" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="AG351" s="5">
         <v>1</v>
@@ -31689,10 +31690,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="I352" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="K352" s="5">
         <v>-31</v>
@@ -31710,10 +31711,10 @@
         <v>19800</v>
       </c>
       <c r="P352" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="Q352" s="10" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="V352" s="5" t="s">
         <v>570</v>
@@ -31731,10 +31732,10 @@
         <v>37</v>
       </c>
       <c r="AA352" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="AG352" s="5">
         <v>1</v>
@@ -31760,13 +31761,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="H353" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="I353" s="5" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="K353" s="5">
         <v>-31</v>
@@ -31784,13 +31785,13 @@
         <v>600</v>
       </c>
       <c r="P353" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="Q353" s="10" t="s">
+        <v>1312</v>
+      </c>
+      <c r="V353" s="5" t="s">
         <v>1313</v>
-      </c>
-      <c r="Q353" s="10" t="s">
-        <v>1314</v>
-      </c>
-      <c r="V353" s="5" t="s">
-        <v>1315</v>
       </c>
       <c r="W353" s="5">
         <v>9999999</v>
@@ -31828,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="H354" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="I354" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="K354" s="5">
         <v>-31</v>
@@ -31846,19 +31847,19 @@
         <v>0</v>
       </c>
       <c r="N354" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O354" s="5">
         <v>1200</v>
       </c>
       <c r="P354" s="5" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="Q354" s="10" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="V354" s="5" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="W354" s="5">
         <v>9999999</v>
@@ -31896,13 +31897,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="H355" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="K355" s="5">
         <v>-31</v>
@@ -31914,16 +31915,16 @@
         <v>0</v>
       </c>
       <c r="N355" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O355" s="5">
         <v>1800</v>
       </c>
       <c r="P355" s="5" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="Q355" s="10" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="V355" s="5" t="s">
         <v>599</v>
@@ -31964,13 +31965,13 @@
         <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H356" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I356" s="5" t="s">
         <v>1203</v>
-      </c>
-      <c r="H356" s="5" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I356" s="5" t="s">
-        <v>1205</v>
       </c>
       <c r="K356" s="5">
         <v>-31</v>
@@ -31988,13 +31989,13 @@
         <v>4800</v>
       </c>
       <c r="P356" s="5" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="Q356" s="10" t="s">
         <v>274</v>
       </c>
       <c r="V356" s="5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="W356" s="5">
         <v>9999999</v>
@@ -32032,13 +32033,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -32050,19 +32051,19 @@
         <v>0</v>
       </c>
       <c r="N357" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O357" s="5">
         <v>9800</v>
       </c>
       <c r="P357" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="Q357" s="10" t="s">
         <v>274</v>
       </c>
       <c r="V357" s="5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="W357" s="5">
         <v>9999999</v>
@@ -32100,13 +32101,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H358" s="5" t="s">
         <v>1209</v>
       </c>
-      <c r="H358" s="5" t="s">
-        <v>1211</v>
-      </c>
       <c r="I358" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="K358" s="5">
         <v>-31</v>
@@ -32118,13 +32119,13 @@
         <v>0</v>
       </c>
       <c r="N358" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O358" s="5">
         <v>19800</v>
       </c>
       <c r="P358" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="Q358" s="10" t="s">
         <v>274</v>
@@ -32168,13 +32169,13 @@
         <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="K359" s="5">
         <v>-31</v>
@@ -32186,19 +32187,19 @@
         <v>0</v>
       </c>
       <c r="N359" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O359" s="5">
         <v>9800</v>
       </c>
       <c r="P359" s="5" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="Q359" s="10" t="s">
         <v>274</v>
       </c>
       <c r="V359" s="5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="W359" s="5">
         <v>9999999</v>
@@ -32236,13 +32237,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="H360" s="5" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="K360" s="5">
         <v>-31</v>
@@ -32254,19 +32255,19 @@
         <v>0</v>
       </c>
       <c r="N360" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O360" s="5">
         <v>19800</v>
       </c>
       <c r="P360" s="5" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="Q360" s="10" t="s">
         <v>274</v>
       </c>
       <c r="V360" s="5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="W360" s="5">
         <v>9999999</v>
@@ -32304,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="H361" s="5" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="K361" s="5">
         <v>-31</v>
@@ -32322,19 +32323,19 @@
         <v>0</v>
       </c>
       <c r="N361" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O361" s="5">
         <v>49800</v>
       </c>
       <c r="P361" s="5" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="Q361" s="10" t="s">
         <v>274</v>
       </c>
       <c r="V361" s="5" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="W361" s="5">
         <v>9999999</v>
@@ -32372,13 +32373,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="K362" s="5">
         <v>-31</v>
@@ -32396,10 +32397,10 @@
         <v>1800</v>
       </c>
       <c r="P362" s="5" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="Q362" s="10" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="V362" s="5" t="s">
         <v>570</v>
@@ -32417,10 +32418,10 @@
         <v>38</v>
       </c>
       <c r="AA362" s="5" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="AG362" s="5">
         <v>1</v>
@@ -32446,13 +32447,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="H363" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="K363" s="5">
         <v>-31</v>
@@ -32464,19 +32465,19 @@
         <v>0</v>
       </c>
       <c r="N363" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O363" s="5">
         <v>19800</v>
       </c>
       <c r="P363" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="Q363" s="10" t="s">
         <v>274</v>
       </c>
       <c r="V363" s="5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="W363" s="5">
         <v>9999999</v>
@@ -32491,10 +32492,10 @@
         <v>39</v>
       </c>
       <c r="AA363" s="5" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="AG363" s="5">
         <v>1</v>
@@ -32520,13 +32521,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="K364" s="5">
         <v>-31</v>
@@ -32538,19 +32539,19 @@
         <v>0</v>
       </c>
       <c r="N364" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O364" s="5">
         <v>49800</v>
       </c>
       <c r="P364" s="5" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="Q364" s="10" t="s">
         <v>274</v>
       </c>
       <c r="V364" s="5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="W364" s="5">
         <v>9999999</v>
@@ -32565,10 +32566,10 @@
         <v>40</v>
       </c>
       <c r="AA364" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="AG364" s="5">
         <v>1</v>
@@ -32594,10 +32595,10 @@
         <v>1</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="K365" s="5">
         <v>-31</v>
@@ -32609,16 +32610,16 @@
         <v>0</v>
       </c>
       <c r="N365" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O365" s="5">
         <v>131400</v>
       </c>
       <c r="P365" s="5" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="Q365" s="10" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="V365" s="5" t="s">
         <v>570</v>
@@ -32659,10 +32660,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="I366" s="5" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="K366" s="5">
         <v>-31</v>
@@ -32674,16 +32675,16 @@
         <v>0</v>
       </c>
       <c r="N366" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O366" s="5">
         <v>52000</v>
       </c>
       <c r="P366" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="Q366" s="10" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="V366" s="5" t="s">
         <v>570</v>
@@ -32724,10 +32725,10 @@
         <v>1</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="K367" s="5">
         <v>-31</v>
@@ -32739,19 +32740,19 @@
         <v>0</v>
       </c>
       <c r="N367" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O367" s="5">
         <v>25800</v>
       </c>
       <c r="P367" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="Q367" s="10" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="V367" s="5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="W367" s="5">
         <v>9999999</v>
@@ -32789,10 +32790,10 @@
         <v>1</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="K368" s="5">
         <v>-31</v>
@@ -32804,16 +32805,16 @@
         <v>0</v>
       </c>
       <c r="N368" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O368" s="5">
         <v>14700</v>
       </c>
       <c r="P368" s="5" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="Q368" s="10" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="V368" s="5" t="s">
         <v>570</v>
@@ -32854,10 +32855,10 @@
         <v>1</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="K369" s="5">
         <v>-31</v>
@@ -32875,13 +32876,13 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="Q369" s="10" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="V369" s="5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="W369" s="5">
         <v>9999999</v>
@@ -32919,10 +32920,10 @@
         <v>1</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="K370" s="5">
         <v>-31</v>
@@ -32940,7 +32941,7 @@
         <v>1800</v>
       </c>
       <c r="P370" s="5" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="Q370" s="10" t="s">
         <v>757</v>
@@ -32981,10 +32982,10 @@
         <v>1</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I371" s="5" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="K371" s="5">
         <v>-31</v>
@@ -33002,10 +33003,10 @@
         <v>4800</v>
       </c>
       <c r="P371" s="5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="Q371" s="10" t="s">
         <v>1335</v>
-      </c>
-      <c r="Q371" s="10" t="s">
-        <v>1337</v>
       </c>
       <c r="V371" s="5" t="s">
         <v>600</v>
@@ -33043,10 +33044,10 @@
         <v>1</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="K372" s="5">
         <v>-31</v>
@@ -33064,7 +33065,7 @@
         <v>9800</v>
       </c>
       <c r="P372" s="5" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="Q372" s="10" t="s">
         <v>761</v>
@@ -33105,10 +33106,10 @@
         <v>1</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="K373" s="5">
         <v>-31</v>
@@ -33126,13 +33127,13 @@
         <v>19800</v>
       </c>
       <c r="P373" s="5" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="Q373" s="10" t="s">
         <v>762</v>
       </c>
       <c r="V373" s="5" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="W373" s="5">
         <v>9999999</v>
@@ -33167,13 +33168,13 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="H374" s="5" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="I374" s="5" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="K374" s="5">
         <v>-31</v>
@@ -33185,7 +33186,7 @@
         <v>0</v>
       </c>
       <c r="N374" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O374" s="5">
         <v>600</v>
@@ -33194,7 +33195,7 @@
         <v>527</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="V374" s="5" t="s">
         <v>570</v>
@@ -33235,13 +33236,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H375" s="5" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I375" s="5" t="s">
         <v>1357</v>
-      </c>
-      <c r="H375" s="5" t="s">
-        <v>1358</v>
-      </c>
-      <c r="I375" s="5" t="s">
-        <v>1359</v>
       </c>
       <c r="K375" s="5">
         <v>-31</v>
@@ -33253,19 +33254,19 @@
         <v>0</v>
       </c>
       <c r="N375" s="5" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="O375" s="5">
         <v>300</v>
       </c>
       <c r="P375" s="5" t="s">
+        <v>1359</v>
+      </c>
+      <c r="Q375" s="10" t="s">
+        <v>1360</v>
+      </c>
+      <c r="V375" s="5" t="s">
         <v>1361</v>
-      </c>
-      <c r="Q375" s="10" t="s">
-        <v>1362</v>
-      </c>
-      <c r="V375" s="5" t="s">
-        <v>1363</v>
       </c>
       <c r="W375" s="5">
         <v>9999999</v>
@@ -33303,13 +33304,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="H376" s="5" t="s">
         <v>1365</v>
       </c>
-      <c r="H376" s="5" t="s">
-        <v>1367</v>
-      </c>
       <c r="I376" s="5" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="K376" s="5">
         <v>-31</v>
@@ -33321,19 +33322,19 @@
         <v>0</v>
       </c>
       <c r="N376" s="5" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="O376" s="5">
         <v>0</v>
       </c>
       <c r="P376" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="Q376" s="10" t="s">
+        <v>1369</v>
+      </c>
+      <c r="V376" s="5" t="s">
         <v>1370</v>
-      </c>
-      <c r="Q376" s="10" t="s">
-        <v>1371</v>
-      </c>
-      <c r="V376" s="5" t="s">
-        <v>1372</v>
       </c>
       <c r="W376" s="5">
         <v>9999999</v>
@@ -33371,13 +33372,13 @@
         <v>1</v>
       </c>
       <c r="G377" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="H377" s="5" t="s">
         <v>1365</v>
       </c>
-      <c r="H377" s="5" t="s">
-        <v>1367</v>
-      </c>
       <c r="I377" s="5" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="K377" s="5">
         <v>-31</v>
@@ -33389,19 +33390,19 @@
         <v>0</v>
       </c>
       <c r="N377" s="5" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="O377" s="5">
         <v>300</v>
       </c>
       <c r="P377" s="5" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="Q377" s="10" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="V377" s="5" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="W377" s="5">
         <v>9999999</v>
@@ -33439,13 +33440,13 @@
         <v>1</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="H378" s="5" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="I378" s="5" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="K378" s="5">
         <v>-31</v>
@@ -33463,13 +33464,13 @@
         <v>600</v>
       </c>
       <c r="P378" s="5" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="Q378" s="10" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="V378" s="5" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="W378" s="5">
         <v>9999999</v>
@@ -33507,10 +33508,10 @@
         <v>1</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="H379" s="5" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="I379" s="5" t="s">
         <v>908</v>
@@ -33525,19 +33526,19 @@
         <v>0</v>
       </c>
       <c r="N379" s="5" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="O379" s="5">
         <v>1800</v>
       </c>
       <c r="P379" s="5" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="Q379" s="10" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="V379" s="5" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="W379" s="5">
         <v>9999999</v>
@@ -33575,10 +33576,10 @@
         <v>1</v>
       </c>
       <c r="G380" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H380" s="5" t="s">
         <v>1364</v>
-      </c>
-      <c r="H380" s="5" t="s">
-        <v>1366</v>
       </c>
       <c r="I380" s="5" t="s">
         <v>909</v>
@@ -33593,19 +33594,19 @@
         <v>0</v>
       </c>
       <c r="N380" s="5" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="O380" s="5">
         <v>4800</v>
       </c>
       <c r="P380" s="5" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="Q380" s="10" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="V380" s="5" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="W380" s="5">
         <v>9999999</v>
@@ -33643,13 +33644,13 @@
         <v>1</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="K381" s="5">
         <v>-31</v>
@@ -33667,10 +33668,10 @@
         <v>0</v>
       </c>
       <c r="P381" s="5" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="Q381" s="10" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="V381" s="5" t="s">
         <v>572</v>
@@ -33711,13 +33712,13 @@
         <v>1</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="K382" s="5">
         <v>-31</v>
@@ -33735,13 +33736,13 @@
         <v>1800</v>
       </c>
       <c r="P382" s="5" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="Q382" s="10" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="V382" s="5" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="W382" s="5">
         <v>9999999</v>
@@ -33779,13 +33780,13 @@
         <v>1</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="H383" s="5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="I383" s="5" t="s">
         <v>1379</v>
-      </c>
-      <c r="I383" s="5" t="s">
-        <v>1381</v>
       </c>
       <c r="K383" s="5">
         <v>-31</v>
@@ -33803,10 +33804,10 @@
         <v>4800</v>
       </c>
       <c r="P383" s="5" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="Q383" s="10" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="V383" s="5" t="s">
         <v>538</v>
@@ -33847,13 +33848,13 @@
         <v>1</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="H384" s="5" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="K384" s="5">
         <v>-31</v>
@@ -33865,13 +33866,13 @@
         <v>0</v>
       </c>
       <c r="N384" s="5" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="O384" s="5">
         <v>9800</v>
       </c>
       <c r="P384" s="5" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="Q384" s="10" t="s">
         <v>761</v>
@@ -33915,13 +33916,13 @@
         <v>1</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="H385" s="5" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="K385" s="5">
         <v>-31</v>
@@ -33933,19 +33934,19 @@
         <v>0</v>
       </c>
       <c r="N385" s="5" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="O385" s="5">
         <v>19800</v>
       </c>
       <c r="P385" s="5" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="Q385" s="10" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="V385" s="5" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="W385" s="5">
         <v>9999999</v>
@@ -33983,13 +33984,13 @@
         <v>1</v>
       </c>
       <c r="G386" s="48" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H386" s="48" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I386" s="48" t="s">
         <v>1390</v>
-      </c>
-      <c r="H386" s="48" t="s">
-        <v>1391</v>
-      </c>
-      <c r="I386" s="48" t="s">
-        <v>1392</v>
       </c>
       <c r="K386" s="48">
         <v>-31</v>
@@ -34007,10 +34008,10 @@
         <v>1800</v>
       </c>
       <c r="P386" s="48" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="Q386" s="49" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="V386" s="48" t="s">
         <v>538</v>
@@ -34051,13 +34052,13 @@
         <v>1</v>
       </c>
       <c r="G387" s="48" t="s">
+        <v>1393</v>
+      </c>
+      <c r="H387" s="48" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I387" s="48" t="s">
         <v>1395</v>
-      </c>
-      <c r="H387" s="48" t="s">
-        <v>1396</v>
-      </c>
-      <c r="I387" s="48" t="s">
-        <v>1397</v>
       </c>
       <c r="K387" s="48">
         <v>-31</v>
@@ -34069,16 +34070,16 @@
         <v>0</v>
       </c>
       <c r="N387" s="48" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="O387" s="48">
         <v>3000</v>
       </c>
       <c r="P387" s="48" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="Q387" s="49" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="V387" s="48" t="s">
         <v>538</v>
@@ -34119,13 +34120,13 @@
         <v>1</v>
       </c>
       <c r="G388" s="48" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H388" s="48" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I388" s="48" t="s">
         <v>1401</v>
-      </c>
-      <c r="H388" s="48" t="s">
-        <v>1402</v>
-      </c>
-      <c r="I388" s="48" t="s">
-        <v>1403</v>
       </c>
       <c r="K388" s="48">
         <v>-31</v>
@@ -34137,19 +34138,19 @@
         <v>0</v>
       </c>
       <c r="N388" s="48" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="O388" s="48">
         <v>4800</v>
       </c>
       <c r="P388" s="48" t="s">
+        <v>1403</v>
+      </c>
+      <c r="Q388" s="49" t="s">
+        <v>1404</v>
+      </c>
+      <c r="V388" s="48" t="s">
         <v>1405</v>
-      </c>
-      <c r="Q388" s="49" t="s">
-        <v>1406</v>
-      </c>
-      <c r="V388" s="48" t="s">
-        <v>1407</v>
       </c>
       <c r="W388" s="48">
         <v>9999999</v>
@@ -34187,13 +34188,13 @@
         <v>1</v>
       </c>
       <c r="G389" s="48" t="s">
+        <v>1406</v>
+      </c>
+      <c r="H389" s="48" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I389" s="48" t="s">
         <v>1408</v>
-      </c>
-      <c r="H389" s="48" t="s">
-        <v>1409</v>
-      </c>
-      <c r="I389" s="48" t="s">
-        <v>1410</v>
       </c>
       <c r="K389" s="48">
         <v>-31</v>
@@ -34205,16 +34206,16 @@
         <v>0</v>
       </c>
       <c r="N389" s="48" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="O389" s="48">
         <v>4800</v>
       </c>
       <c r="P389" s="48" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="Q389" s="49" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="V389" s="48" t="s">
         <v>538</v>
@@ -34255,13 +34256,13 @@
         <v>1</v>
       </c>
       <c r="G390" s="48" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H390" s="48" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I390" s="48" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="K390" s="48">
         <v>-31</v>
@@ -34279,10 +34280,10 @@
         <v>9800</v>
       </c>
       <c r="P390" s="48" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="Q390" s="49" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="V390" s="48" t="s">
         <v>538</v>
@@ -34323,13 +34324,13 @@
         <v>1</v>
       </c>
       <c r="G391" s="48" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="H391" s="48" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="I391" s="48" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="K391" s="48">
         <v>-31</v>
@@ -34347,10 +34348,10 @@
         <v>19800</v>
       </c>
       <c r="P391" s="48" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="Q391" s="49" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="V391" s="48" t="s">
         <v>538</v>
@@ -34391,13 +34392,13 @@
         <v>1</v>
       </c>
       <c r="G392" s="48" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="H392" s="48" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="I392" s="48" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="K392" s="48">
         <v>-31</v>
@@ -34415,10 +34416,10 @@
         <v>9800</v>
       </c>
       <c r="P392" s="48" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="Q392" s="49" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="V392" s="48" t="s">
         <v>538</v>
@@ -34459,13 +34460,13 @@
         <v>1</v>
       </c>
       <c r="G393" s="48" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H393" s="48" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="I393" s="48" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="K393" s="48">
         <v>-31</v>
@@ -34483,10 +34484,10 @@
         <v>19800</v>
       </c>
       <c r="P393" s="48" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="Q393" s="49" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="V393" s="48" t="s">
         <v>538</v>
@@ -34527,13 +34528,13 @@
         <v>1</v>
       </c>
       <c r="G394" s="48" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="H394" s="48" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="I394" s="48" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="K394" s="48">
         <v>-31</v>
@@ -34545,16 +34546,16 @@
         <v>0</v>
       </c>
       <c r="N394" s="48" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="O394" s="48">
         <v>49800</v>
       </c>
       <c r="P394" s="48" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="Q394" s="49" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="V394" s="48" t="s">
         <v>538</v>
@@ -34595,10 +34596,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="52" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="I395" s="52" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="K395" s="52">
         <v>-31</v>
@@ -34610,16 +34611,16 @@
         <v>0</v>
       </c>
       <c r="N395" s="52" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="O395" s="52">
         <v>600</v>
       </c>
       <c r="P395" s="52" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="Q395" s="53" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="V395" s="52" t="s">
         <v>531</v>
@@ -34657,10 +34658,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="52" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="I396" s="52" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="K396" s="52">
         <v>-31</v>
@@ -34672,16 +34673,16 @@
         <v>0</v>
       </c>
       <c r="N396" s="52" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="O396" s="52">
         <v>2000</v>
       </c>
       <c r="P396" s="52" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="Q396" s="53" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="V396" s="52" t="s">
         <v>531</v>
@@ -34722,7 +34723,7 @@
         <v>291</v>
       </c>
       <c r="I397" s="52" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="K397" s="52">
         <v>-31</v>
@@ -34740,10 +34741,10 @@
         <v>4800</v>
       </c>
       <c r="P397" s="52" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="Q397" s="53" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="V397" s="52" t="s">
         <v>531</v>
@@ -34784,7 +34785,7 @@
         <v>294</v>
       </c>
       <c r="I398" s="52" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="K398" s="52">
         <v>-31</v>
@@ -34802,10 +34803,10 @@
         <v>9800</v>
       </c>
       <c r="P398" s="52" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="Q398" s="53" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="V398" s="52" t="s">
         <v>531</v>
@@ -34843,10 +34844,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="52" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="I399" s="52" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="K399" s="52">
         <v>-31</v>
@@ -34858,16 +34859,16 @@
         <v>0</v>
       </c>
       <c r="N399" s="52" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="O399" s="52">
         <v>19800</v>
       </c>
       <c r="P399" s="52" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="Q399" s="53" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="V399" s="52" t="s">
         <v>531</v>
@@ -34905,10 +34906,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="52" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="I400" s="52" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="K400" s="52">
         <v>-31</v>
@@ -34920,16 +34921,16 @@
         <v>0</v>
       </c>
       <c r="N400" s="52" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="O400" s="52">
         <v>49800</v>
       </c>
       <c r="P400" s="52" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="Q400" s="53" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="V400" s="52" t="s">
         <v>531</v>
@@ -34967,10 +34968,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="54" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="I401" s="54" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="K401" s="54">
         <v>-31</v>
@@ -34982,19 +34983,19 @@
         <v>0</v>
       </c>
       <c r="N401" s="54" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O401" s="54">
         <v>1800</v>
       </c>
       <c r="P401" s="54" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="Q401" s="54" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="V401" s="54" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="W401" s="54">
         <v>99999999</v>
@@ -35032,10 +35033,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="54" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="I402" s="54" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="K402" s="54">
         <v>-31</v>
@@ -35047,19 +35048,19 @@
         <v>0</v>
       </c>
       <c r="N402" s="54" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="O402" s="54">
         <v>4800</v>
       </c>
       <c r="P402" s="54" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="Q402" s="54" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="V402" s="54" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="W402" s="54">
         <v>99999999</v>
@@ -35097,10 +35098,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="54" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="I403" s="54" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="K403" s="54">
         <v>-31</v>
@@ -35112,19 +35113,19 @@
         <v>0</v>
       </c>
       <c r="N403" s="54" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O403" s="54">
         <v>9800</v>
       </c>
       <c r="P403" s="54" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="Q403" s="54" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="V403" s="54" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="W403" s="54">
         <v>99999999</v>
@@ -35162,10 +35163,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="54" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="I404" s="54" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="K404" s="54">
         <v>-31</v>
@@ -35177,19 +35178,19 @@
         <v>0</v>
       </c>
       <c r="N404" s="54" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O404" s="54">
         <v>19800</v>
       </c>
       <c r="P404" s="54" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="Q404" s="54" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="V404" s="54" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="W404" s="54">
         <v>99999999</v>
@@ -35227,10 +35228,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="54" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="I405" s="54" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="K405" s="54">
         <v>-31</v>
@@ -35242,19 +35243,19 @@
         <v>0</v>
       </c>
       <c r="N405" s="54" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O405" s="54">
         <v>29800</v>
       </c>
       <c r="P405" s="54" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="Q405" s="54" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="V405" s="54" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="W405" s="54">
         <v>99999999</v>
@@ -35292,10 +35293,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="54" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="I406" s="54" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="K406" s="54">
         <v>-31</v>
@@ -35307,19 +35308,19 @@
         <v>0</v>
       </c>
       <c r="N406" s="54" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O406" s="54">
         <v>49800</v>
       </c>
       <c r="P406" s="54" t="s">
+        <v>1492</v>
+      </c>
+      <c r="Q406" s="54" t="s">
+        <v>1493</v>
+      </c>
+      <c r="V406" s="54" t="s">
         <v>1494</v>
-      </c>
-      <c r="Q406" s="54" t="s">
-        <v>1495</v>
-      </c>
-      <c r="V406" s="54" t="s">
-        <v>1496</v>
       </c>
       <c r="W406" s="54">
         <v>99999999</v>
@@ -35357,10 +35358,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="54" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="I407" s="54" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="K407" s="54">
         <v>-31</v>
@@ -35372,19 +35373,19 @@
         <v>0</v>
       </c>
       <c r="N407" s="54" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="O407" s="54">
         <v>99800</v>
       </c>
       <c r="P407" s="54" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="Q407" s="54" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="V407" s="54" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="W407" s="54">
         <v>99999999</v>
@@ -35439,7 +35440,7 @@
         <v>392</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>393</v>
@@ -35456,7 +35457,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -35473,7 +35474,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -35487,7 +35488,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -35501,7 +35502,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -35627,7 +35628,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -35655,7 +35656,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -35809,7 +35810,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -35823,7 +35824,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -35837,7 +35838,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -35851,7 +35852,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -35865,7 +35866,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -35879,7 +35880,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -35893,7 +35894,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -35907,7 +35908,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -35921,7 +35922,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -35935,7 +35936,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -35949,7 +35950,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -35963,7 +35964,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -35977,7 +35978,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -35991,7 +35992,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -36005,7 +36006,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -36019,7 +36020,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -36033,7 +36034,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -36047,7 +36048,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -36061,7 +36062,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="51" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="C45" s="50">
         <v>1</v>
@@ -36075,7 +36076,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C46" s="50">
         <v>1</v>
@@ -36089,7 +36090,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="C47" s="50">
         <v>1</v>
@@ -36103,7 +36104,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="C48" s="55">
         <v>1</v>
@@ -36123,8 +36124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36235,7 +36236,7 @@
         <v>42</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -36279,16 +36280,16 @@
         <v>3</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>49</v>
       </c>
       <c r="T2" s="34" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>409</v>
@@ -36344,16 +36345,16 @@
         <v>4</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>51</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>409</v>
@@ -36409,10 +36410,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>52</v>
@@ -36474,16 +36475,16 @@
         <v>6</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>53</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U5" s="11" t="s">
         <v>409</v>
@@ -36539,10 +36540,10 @@
         <v>7</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>54</v>
@@ -36604,10 +36605,10 @@
         <v>9</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>55</v>
@@ -36666,16 +36667,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>49</v>
       </c>
       <c r="T8" s="34" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="U8" s="11" t="s">
         <v>409</v>
@@ -36754,7 +36755,7 @@
       <c r="Z9" s="35"/>
       <c r="AA9" s="35"/>
       <c r="AB9" s="36" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -36824,7 +36825,7 @@
       <c r="Z10" s="35"/>
       <c r="AA10" s="35"/>
       <c r="AB10" s="36" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -36868,10 +36869,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>51</v>
@@ -36897,7 +36898,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D12" s="11">
         <v>109</v>
@@ -36933,10 +36934,10 @@
         <v>9</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>56</v>
@@ -36998,10 +36999,10 @@
         <v>10</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>411</v>
@@ -37063,10 +37064,10 @@
         <v>11</v>
       </c>
       <c r="P14" s="34" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>412</v>
@@ -37099,7 +37100,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="G15" s="35">
         <v>100</v>
@@ -37137,7 +37138,7 @@
         <v>100</v>
       </c>
       <c r="T15" s="36" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="U15" s="35" t="s">
         <v>409</v>
@@ -37153,7 +37154,7 @@
       <c r="Z15" s="35"/>
       <c r="AA15" s="35"/>
       <c r="AB15" s="36" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -37200,17 +37201,17 @@
         <v>3</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="Q16" s="12"/>
       <c r="R16" s="34" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>63</v>
       </c>
       <c r="T16" s="34" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>409</v>
@@ -37265,11 +37266,11 @@
         <v>4</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="Q17" s="12"/>
       <c r="R17" s="34" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>66</v>
@@ -37330,11 +37331,11 @@
         <v>5</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="34" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>69</v>
@@ -37395,11 +37396,11 @@
         <v>6</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="Q19" s="12"/>
       <c r="R19" s="34" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>73</v>
@@ -37460,10 +37461,10 @@
         <v>7</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>77</v>
@@ -37524,11 +37525,11 @@
         <v>0</v>
       </c>
       <c r="P21" s="34" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="34" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>79</v>
@@ -37602,7 +37603,7 @@
         <v>5000</v>
       </c>
       <c r="T22" s="36" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U22" s="35" t="s">
         <v>409</v>
@@ -37740,7 +37741,7 @@
         <v>100</v>
       </c>
       <c r="T24" s="36" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="U24" s="35" t="s">
         <v>409</v>
@@ -37756,7 +37757,7 @@
       <c r="Z24" s="35"/>
       <c r="AA24" s="35"/>
       <c r="AB24" s="36" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -37776,16 +37777,16 @@
         <v>111</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G25" s="11">
-        <v>19800</v>
+        <v>15840</v>
       </c>
       <c r="H25" s="11">
-        <v>19800000</v>
+        <v>15840000</v>
       </c>
       <c r="I25" s="11">
-        <v>19800000</v>
+        <v>15840000</v>
       </c>
       <c r="J25" s="11" t="s">
         <v>46</v>
@@ -37803,10 +37804,10 @@
         <v>8</v>
       </c>
       <c r="P25" s="34" t="s">
-        <v>965</v>
+        <v>1502</v>
       </c>
       <c r="R25" s="34" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="S25" s="34" t="s">
         <v>525</v>
@@ -38264,7 +38265,7 @@
         <v>80</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L8" s="12">
         <v>57</v>
@@ -38282,7 +38283,7 @@
         <v>438</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>423</v>
@@ -38457,7 +38458,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>473</v>
@@ -38504,7 +38505,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>473</v>
@@ -38551,7 +38552,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>477</v>

--- a/config_10.13/shoping_config_vivo.xlsx
+++ b/config_10.13/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_vivo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="1504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="1503">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5750,14 +5750,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"30万鲸币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>pay_title|名字，标题</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6827,6 +6819,10 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "031_gqfd_gift" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万鲸币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9634,10 +9630,10 @@
   <dimension ref="A1:AM407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V362" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W362" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X374" sqref="X374:Y374"/>
+      <selection pane="bottomRight" activeCell="W374" sqref="W374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -9699,10 +9695,10 @@
         <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>85</v>
@@ -13368,7 +13364,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>973</v>
@@ -14008,7 +14004,7 @@
         <v>238</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -14029,7 +14025,7 @@
         <v>981</v>
       </c>
       <c r="Q77" s="40" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>528</v>
@@ -14064,7 +14060,7 @@
         <v>239</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -14082,10 +14078,10 @@
         <v>1000</v>
       </c>
       <c r="P78" s="19" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="Q78" s="40" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="V78" s="19" t="s">
         <v>528</v>
@@ -14103,10 +14099,10 @@
         <v>80</v>
       </c>
       <c r="AB78" s="19" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="AC78" s="40" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="AG78" s="19">
         <v>1</v>
@@ -14126,7 +14122,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>836</v>
@@ -14280,10 +14276,10 @@
         <v>4800</v>
       </c>
       <c r="P81" s="19" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="Q81" s="40" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="V81" s="19" t="s">
         <v>528</v>
@@ -14298,10 +14294,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA81" s="19" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="AB81" s="19" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="AG81" s="19">
         <v>1</v>
@@ -14510,10 +14506,10 @@
         <v>4800</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="V85" s="5" t="s">
         <v>530</v>
@@ -14616,10 +14612,10 @@
         <v>9600</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="V87" s="5" t="s">
         <v>530</v>
@@ -17077,7 +17073,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="K129" s="5">
         <v>-11</v>
@@ -17682,7 +17678,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="5" t="s">
@@ -17742,7 +17738,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="5" t="s">
@@ -19562,7 +19558,7 @@
         <v>1</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I169" s="19" t="s">
         <v>1071</v>
@@ -19686,10 +19682,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I171" s="19" t="s">
         <v>997</v>
@@ -19754,10 +19750,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I172" s="19" t="s">
         <v>998</v>
@@ -19822,10 +19818,10 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I173" s="19" t="s">
         <v>999</v>
@@ -19890,10 +19886,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="I174" s="19" t="s">
         <v>1000</v>
@@ -19958,10 +19954,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I175" s="19" t="s">
         <v>1011</v>
@@ -20026,10 +20022,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I176" s="19" t="s">
         <v>1012</v>
@@ -20094,10 +20090,10 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I177" s="19" t="s">
         <v>1013</v>
@@ -20162,7 +20158,7 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="H178" s="19" t="s">
         <v>492</v>
@@ -20230,10 +20226,10 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I179" s="19" t="s">
         <v>1015</v>
@@ -20298,10 +20294,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I180" s="19" t="s">
         <v>1005</v>
@@ -20366,10 +20362,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I181" s="19" t="s">
         <v>1016</v>
@@ -20434,10 +20430,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="I182" s="19" t="s">
         <v>1017</v>
@@ -20502,10 +20498,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I183" s="19" t="s">
         <v>1018</v>
@@ -20570,10 +20566,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="I184" s="19" t="s">
         <v>1017</v>
@@ -20638,10 +20634,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="I185" s="19" t="s">
         <v>1019</v>
@@ -25121,7 +25117,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I254" s="5" t="s">
         <v>960</v>
@@ -25316,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I257" s="5" t="s">
         <v>895</v>
@@ -25839,7 +25835,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I265" s="5" t="s">
         <v>901</v>
@@ -26099,7 +26095,7 @@
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I269" s="5" t="s">
         <v>903</v>
@@ -26621,7 +26617,7 @@
         <v>0</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I277" s="5" t="s">
         <v>907</v>
@@ -26686,7 +26682,7 @@
         <v>0</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I278" s="5" t="s">
         <v>908</v>
@@ -26751,7 +26747,7 @@
         <v>0</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I279" s="5" t="s">
         <v>909</v>
@@ -26816,7 +26812,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I280" s="5" t="s">
         <v>906</v>
@@ -29305,10 +29301,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="K320" s="5">
         <v>-25</v>
@@ -29361,7 +29357,7 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="I321" s="5" t="s">
         <v>933</v>
@@ -29423,7 +29419,7 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I322" s="5" t="s">
         <v>627</v>
@@ -29654,7 +29650,7 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19" t="s">
@@ -29734,7 +29730,7 @@
         <v>1</v>
       </c>
       <c r="G326" s="41" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I326" s="41" t="s">
         <v>1025</v>
@@ -29793,7 +29789,7 @@
         <v>1</v>
       </c>
       <c r="G327" s="44" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I327" s="44" t="s">
         <v>1044</v>
@@ -30675,7 +30671,7 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="I338" s="19" t="s">
         <v>1083</v>
@@ -30830,7 +30826,7 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19" t="s">
@@ -30911,11 +30907,11 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="5" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="K341" s="5">
         <v>-31</v>
@@ -30927,19 +30923,19 @@
         <v>0</v>
       </c>
       <c r="N341" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O341" s="5">
         <v>600</v>
       </c>
       <c r="P341" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="Q341" s="10" t="s">
+        <v>1280</v>
+      </c>
+      <c r="V341" s="5" t="s">
         <v>1281</v>
-      </c>
-      <c r="Q341" s="10" t="s">
-        <v>1282</v>
-      </c>
-      <c r="V341" s="5" t="s">
-        <v>1283</v>
       </c>
       <c r="W341" s="5">
         <v>9999999</v>
@@ -30954,10 +30950,10 @@
         <v>26</v>
       </c>
       <c r="AA341" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="AB341" s="5" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="AG341" s="5">
         <v>1</v>
@@ -30983,10 +30979,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="K342" s="5">
         <v>-31</v>
@@ -30998,19 +30994,19 @@
         <v>0</v>
       </c>
       <c r="N342" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O342" s="5">
         <v>600</v>
       </c>
       <c r="P342" s="5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="Q342" s="10" t="s">
         <v>1187</v>
       </c>
       <c r="V342" s="5" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="W342" s="5">
         <v>9999999</v>
@@ -31025,10 +31021,10 @@
         <v>27</v>
       </c>
       <c r="AA342" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="AG342" s="5">
         <v>1</v>
@@ -31054,10 +31050,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="K343" s="5">
         <v>-31</v>
@@ -31069,19 +31065,19 @@
         <v>0</v>
       </c>
       <c r="N343" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O343" s="5">
         <v>600</v>
       </c>
       <c r="P343" s="5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="Q343" s="10" t="s">
         <v>1188</v>
       </c>
       <c r="V343" s="5" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="W343" s="5">
         <v>9999999</v>
@@ -31096,10 +31092,10 @@
         <v>28</v>
       </c>
       <c r="AA343" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="AG343" s="5">
         <v>1</v>
@@ -31125,10 +31121,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I344" s="5" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="K344" s="5">
         <v>-31</v>
@@ -31140,19 +31136,19 @@
         <v>0</v>
       </c>
       <c r="N344" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O344" s="5">
         <v>4800</v>
       </c>
       <c r="P344" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="Q344" s="10" t="s">
+        <v>1292</v>
+      </c>
+      <c r="V344" s="5" t="s">
         <v>1281</v>
-      </c>
-      <c r="Q344" s="10" t="s">
-        <v>1294</v>
-      </c>
-      <c r="V344" s="5" t="s">
-        <v>1283</v>
       </c>
       <c r="W344" s="5">
         <v>9999999</v>
@@ -31167,10 +31163,10 @@
         <v>29</v>
       </c>
       <c r="AA344" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="AG344" s="5">
         <v>1</v>
@@ -31199,7 +31195,7 @@
         <v>1189</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="K345" s="5">
         <v>-31</v>
@@ -31211,19 +31207,19 @@
         <v>0</v>
       </c>
       <c r="N345" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O345" s="5">
         <v>4800</v>
       </c>
       <c r="P345" s="5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="Q345" s="10" t="s">
         <v>1190</v>
       </c>
       <c r="V345" s="5" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="W345" s="5">
         <v>9999999</v>
@@ -31238,10 +31234,10 @@
         <v>30</v>
       </c>
       <c r="AA345" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="AG345" s="5">
         <v>1</v>
@@ -31270,7 +31266,7 @@
         <v>1191</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="K346" s="5">
         <v>-31</v>
@@ -31282,19 +31278,19 @@
         <v>0</v>
       </c>
       <c r="N346" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O346" s="5">
         <v>4800</v>
       </c>
       <c r="P346" s="5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="Q346" s="10" t="s">
         <v>1192</v>
       </c>
       <c r="V346" s="5" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="W346" s="5">
         <v>9999999</v>
@@ -31309,10 +31305,10 @@
         <v>31</v>
       </c>
       <c r="AA346" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="AG346" s="5">
         <v>1</v>
@@ -31341,7 +31337,7 @@
         <v>1193</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="K347" s="5">
         <v>-31</v>
@@ -31353,19 +31349,19 @@
         <v>0</v>
       </c>
       <c r="N347" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O347" s="5">
         <v>9800</v>
       </c>
       <c r="P347" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="Q347" s="10" t="s">
+        <v>1299</v>
+      </c>
+      <c r="V347" s="5" t="s">
         <v>1281</v>
-      </c>
-      <c r="Q347" s="10" t="s">
-        <v>1301</v>
-      </c>
-      <c r="V347" s="5" t="s">
-        <v>1283</v>
       </c>
       <c r="W347" s="5">
         <v>9999999</v>
@@ -31380,10 +31376,10 @@
         <v>32</v>
       </c>
       <c r="AA347" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="AG347" s="5">
         <v>1</v>
@@ -31412,7 +31408,7 @@
         <v>1194</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="K348" s="5">
         <v>-31</v>
@@ -31424,19 +31420,19 @@
         <v>0</v>
       </c>
       <c r="N348" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O348" s="5">
         <v>9800</v>
       </c>
       <c r="P348" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="Q348" s="10" t="s">
+        <v>1302</v>
+      </c>
+      <c r="V348" s="5" t="s">
         <v>1281</v>
-      </c>
-      <c r="Q348" s="10" t="s">
-        <v>1304</v>
-      </c>
-      <c r="V348" s="5" t="s">
-        <v>1283</v>
       </c>
       <c r="W348" s="5">
         <v>9999999</v>
@@ -31451,10 +31447,10 @@
         <v>33</v>
       </c>
       <c r="AA348" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="AG348" s="5">
         <v>1</v>
@@ -31483,7 +31479,7 @@
         <v>1195</v>
       </c>
       <c r="I349" s="5" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="K349" s="5">
         <v>-31</v>
@@ -31501,13 +31497,13 @@
         <v>9800</v>
       </c>
       <c r="P349" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="Q349" s="10" t="s">
+        <v>1305</v>
+      </c>
+      <c r="V349" s="5" t="s">
         <v>1281</v>
-      </c>
-      <c r="Q349" s="10" t="s">
-        <v>1307</v>
-      </c>
-      <c r="V349" s="5" t="s">
-        <v>1283</v>
       </c>
       <c r="W349" s="5">
         <v>9999999</v>
@@ -31522,7 +31518,7 @@
         <v>34</v>
       </c>
       <c r="AA349" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="AB349" s="5" t="s">
         <v>1196</v>
@@ -31554,7 +31550,7 @@
         <v>1197</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="K350" s="5">
         <v>-31</v>
@@ -31575,10 +31571,10 @@
         <v>1001</v>
       </c>
       <c r="Q350" s="10" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="V350" s="5" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="W350" s="5">
         <v>9999999</v>
@@ -31596,7 +31592,7 @@
         <v>448</v>
       </c>
       <c r="AB350" s="5" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="AG350" s="5">
         <v>1</v>
@@ -31625,7 +31621,7 @@
         <v>1198</v>
       </c>
       <c r="I351" s="5" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="K351" s="5">
         <v>-31</v>
@@ -31637,7 +31633,7 @@
         <v>0</v>
       </c>
       <c r="N351" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O351" s="5">
         <v>19800</v>
@@ -31649,7 +31645,7 @@
         <v>1199</v>
       </c>
       <c r="V351" s="5" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="W351" s="5">
         <v>9999999</v>
@@ -31667,7 +31663,7 @@
         <v>448</v>
       </c>
       <c r="AB351" s="5" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="AG351" s="5">
         <v>1</v>
@@ -31717,7 +31713,7 @@
         <v>1001</v>
       </c>
       <c r="Q352" s="10" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="V352" s="5" t="s">
         <v>570</v>
@@ -31735,7 +31731,7 @@
         <v>37</v>
       </c>
       <c r="AA352" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="AB352" s="5" t="s">
         <v>1202</v>
@@ -31764,7 +31760,7 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="H353" s="5" t="s">
         <v>1204</v>
@@ -31788,13 +31784,13 @@
         <v>600</v>
       </c>
       <c r="P353" s="5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="Q353" s="10" t="s">
+        <v>1314</v>
+      </c>
+      <c r="V353" s="5" t="s">
         <v>1315</v>
-      </c>
-      <c r="Q353" s="10" t="s">
-        <v>1316</v>
-      </c>
-      <c r="V353" s="5" t="s">
-        <v>1317</v>
       </c>
       <c r="W353" s="5">
         <v>9999999</v>
@@ -31832,13 +31828,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="H354" s="5" t="s">
         <v>1204</v>
       </c>
       <c r="I354" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="K354" s="5">
         <v>-31</v>
@@ -31850,7 +31846,7 @@
         <v>0</v>
       </c>
       <c r="N354" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O354" s="5">
         <v>1200</v>
@@ -31859,10 +31855,10 @@
         <v>1208</v>
       </c>
       <c r="Q354" s="10" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="V354" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="W354" s="5">
         <v>9999999</v>
@@ -31900,10 +31896,10 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H355" s="5" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="I355" s="5" t="s">
         <v>1205</v>
@@ -31918,7 +31914,7 @@
         <v>0</v>
       </c>
       <c r="N355" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O355" s="5">
         <v>1800</v>
@@ -32036,7 +32032,7 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="H357" s="5" t="s">
         <v>1211</v>
@@ -32054,7 +32050,7 @@
         <v>0</v>
       </c>
       <c r="N357" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O357" s="5">
         <v>9800</v>
@@ -32110,7 +32106,7 @@
         <v>1211</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="K358" s="5">
         <v>-31</v>
@@ -32122,7 +32118,7 @@
         <v>0</v>
       </c>
       <c r="N358" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O358" s="5">
         <v>19800</v>
@@ -32178,7 +32174,7 @@
         <v>1216</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="K359" s="5">
         <v>-31</v>
@@ -32190,7 +32186,7 @@
         <v>0</v>
       </c>
       <c r="N359" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O359" s="5">
         <v>9800</v>
@@ -32246,7 +32242,7 @@
         <v>1216</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="K360" s="5">
         <v>-31</v>
@@ -32258,7 +32254,7 @@
         <v>0</v>
       </c>
       <c r="N360" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O360" s="5">
         <v>19800</v>
@@ -32314,7 +32310,7 @@
         <v>1216</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="K361" s="5">
         <v>-31</v>
@@ -32326,7 +32322,7 @@
         <v>0</v>
       </c>
       <c r="N361" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O361" s="5">
         <v>49800</v>
@@ -32338,7 +32334,7 @@
         <v>274</v>
       </c>
       <c r="V361" s="5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="W361" s="5">
         <v>9999999</v>
@@ -32376,13 +32372,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H362" s="5" t="s">
         <v>1204</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="K362" s="5">
         <v>-31</v>
@@ -32403,7 +32399,7 @@
         <v>1210</v>
       </c>
       <c r="Q362" s="10" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="V362" s="5" t="s">
         <v>570</v>
@@ -32421,7 +32417,7 @@
         <v>38</v>
       </c>
       <c r="AA362" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="AB362" s="5" t="s">
         <v>1221</v>
@@ -32450,13 +32446,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H363" s="5" t="s">
         <v>1222</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="K363" s="5">
         <v>-31</v>
@@ -32468,7 +32464,7 @@
         <v>0</v>
       </c>
       <c r="N363" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O363" s="5">
         <v>19800</v>
@@ -32480,7 +32476,7 @@
         <v>274</v>
       </c>
       <c r="V363" s="5" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="W363" s="5">
         <v>9999999</v>
@@ -32495,7 +32491,7 @@
         <v>39</v>
       </c>
       <c r="AA363" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="AB363" s="5" t="s">
         <v>1223</v>
@@ -32524,7 +32520,7 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H364" s="5" t="s">
         <v>1216</v>
@@ -32542,7 +32538,7 @@
         <v>0</v>
       </c>
       <c r="N364" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O364" s="5">
         <v>49800</v>
@@ -32554,7 +32550,7 @@
         <v>274</v>
       </c>
       <c r="V364" s="5" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="W364" s="5">
         <v>9999999</v>
@@ -32572,7 +32568,7 @@
         <v>1220</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="AG364" s="5">
         <v>1</v>
@@ -32598,7 +32594,7 @@
         <v>1</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="I365" s="5" t="s">
         <v>1224</v>
@@ -32613,16 +32609,16 @@
         <v>0</v>
       </c>
       <c r="N365" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O365" s="5">
         <v>131400</v>
       </c>
       <c r="P365" s="5" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="Q365" s="10" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="V365" s="5" t="s">
         <v>570</v>
@@ -32663,10 +32659,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I366" s="5" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="K366" s="5">
         <v>-31</v>
@@ -32678,7 +32674,7 @@
         <v>0</v>
       </c>
       <c r="N366" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O366" s="5">
         <v>52000</v>
@@ -32687,7 +32683,7 @@
         <v>1225</v>
       </c>
       <c r="Q366" s="10" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="V366" s="5" t="s">
         <v>570</v>
@@ -32728,7 +32724,7 @@
         <v>1</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I367" s="5" t="s">
         <v>1226</v>
@@ -32743,7 +32739,7 @@
         <v>0</v>
       </c>
       <c r="N367" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O367" s="5">
         <v>25800</v>
@@ -32752,10 +32748,10 @@
         <v>1225</v>
       </c>
       <c r="Q367" s="10" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="V367" s="5" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="W367" s="5">
         <v>9999999</v>
@@ -32793,7 +32789,7 @@
         <v>1</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I368" s="5" t="s">
         <v>1227</v>
@@ -32808,16 +32804,16 @@
         <v>0</v>
       </c>
       <c r="N368" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O368" s="5">
         <v>14700</v>
       </c>
       <c r="P368" s="5" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="Q368" s="10" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="V368" s="5" t="s">
         <v>570</v>
@@ -32858,7 +32854,7 @@
         <v>1</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I369" s="5" t="s">
         <v>1228</v>
@@ -32885,7 +32881,7 @@
         <v>1229</v>
       </c>
       <c r="V369" s="5" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="W369" s="5">
         <v>9999999</v>
@@ -32926,7 +32922,7 @@
         <v>1230</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="K370" s="5">
         <v>-31</v>
@@ -32944,7 +32940,7 @@
         <v>1800</v>
       </c>
       <c r="P370" s="5" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="Q370" s="10" t="s">
         <v>757</v>
@@ -32985,7 +32981,7 @@
         <v>1</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I371" s="5" t="s">
         <v>1231</v>
@@ -33006,10 +33002,10 @@
         <v>4800</v>
       </c>
       <c r="P371" s="5" t="s">
+        <v>1335</v>
+      </c>
+      <c r="Q371" s="10" t="s">
         <v>1337</v>
-      </c>
-      <c r="Q371" s="10" t="s">
-        <v>1339</v>
       </c>
       <c r="V371" s="5" t="s">
         <v>600</v>
@@ -33050,7 +33046,7 @@
         <v>1232</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="K372" s="5">
         <v>-31</v>
@@ -33068,7 +33064,7 @@
         <v>9800</v>
       </c>
       <c r="P372" s="5" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="Q372" s="10" t="s">
         <v>761</v>
@@ -33112,7 +33108,7 @@
         <v>1233</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="K373" s="5">
         <v>-31</v>
@@ -33130,13 +33126,13 @@
         <v>19800</v>
       </c>
       <c r="P373" s="5" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="Q373" s="10" t="s">
         <v>762</v>
       </c>
       <c r="V373" s="5" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="W373" s="5">
         <v>9999999</v>
@@ -33177,7 +33173,7 @@
         <v>1235</v>
       </c>
       <c r="I374" s="5" t="s">
-        <v>1236</v>
+        <v>1502</v>
       </c>
       <c r="K374" s="5">
         <v>-31</v>
@@ -33189,16 +33185,16 @@
         <v>0</v>
       </c>
       <c r="N374" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O374" s="5">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="P374" s="5" t="s">
         <v>527</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1237</v>
+        <v>1280</v>
       </c>
       <c r="V374" s="5" t="s">
         <v>570</v>
@@ -33239,13 +33235,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H375" s="5" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I375" s="5" t="s">
         <v>1359</v>
-      </c>
-      <c r="H375" s="5" t="s">
-        <v>1360</v>
-      </c>
-      <c r="I375" s="5" t="s">
-        <v>1361</v>
       </c>
       <c r="K375" s="5">
         <v>-31</v>
@@ -33257,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="N375" s="5" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="O375" s="5">
         <v>300</v>
       </c>
       <c r="P375" s="5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="Q375" s="10" t="s">
+        <v>1362</v>
+      </c>
+      <c r="V375" s="5" t="s">
         <v>1363</v>
-      </c>
-      <c r="Q375" s="10" t="s">
-        <v>1364</v>
-      </c>
-      <c r="V375" s="5" t="s">
-        <v>1365</v>
       </c>
       <c r="W375" s="5">
         <v>9999999</v>
@@ -33307,13 +33303,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H376" s="5" t="s">
         <v>1367</v>
       </c>
-      <c r="H376" s="5" t="s">
-        <v>1369</v>
-      </c>
       <c r="I376" s="5" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K376" s="5">
         <v>-31</v>
@@ -33325,19 +33321,19 @@
         <v>0</v>
       </c>
       <c r="N376" s="5" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="O376" s="5">
         <v>0</v>
       </c>
       <c r="P376" s="5" t="s">
+        <v>1370</v>
+      </c>
+      <c r="Q376" s="10" t="s">
+        <v>1371</v>
+      </c>
+      <c r="V376" s="5" t="s">
         <v>1372</v>
-      </c>
-      <c r="Q376" s="10" t="s">
-        <v>1373</v>
-      </c>
-      <c r="V376" s="5" t="s">
-        <v>1374</v>
       </c>
       <c r="W376" s="5">
         <v>9999999</v>
@@ -33375,10 +33371,10 @@
         <v>1</v>
       </c>
       <c r="G377" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H377" s="5" t="s">
         <v>1367</v>
-      </c>
-      <c r="H377" s="5" t="s">
-        <v>1369</v>
       </c>
       <c r="I377" s="5" t="s">
         <v>1028</v>
@@ -33393,19 +33389,19 @@
         <v>0</v>
       </c>
       <c r="N377" s="5" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="O377" s="5">
         <v>300</v>
       </c>
       <c r="P377" s="5" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="Q377" s="10" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="V377" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="W377" s="5">
         <v>9999999</v>
@@ -33443,13 +33439,13 @@
         <v>1</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="H378" s="5" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="I378" s="5" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="K378" s="5">
         <v>-31</v>
@@ -33467,13 +33463,13 @@
         <v>600</v>
       </c>
       <c r="P378" s="5" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="Q378" s="10" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="V378" s="5" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="W378" s="5">
         <v>9999999</v>
@@ -33511,10 +33507,10 @@
         <v>1</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="H379" s="5" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="I379" s="5" t="s">
         <v>908</v>
@@ -33529,19 +33525,19 @@
         <v>0</v>
       </c>
       <c r="N379" s="5" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="O379" s="5">
         <v>1800</v>
       </c>
       <c r="P379" s="5" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="Q379" s="10" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="V379" s="5" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="W379" s="5">
         <v>9999999</v>
@@ -33579,10 +33575,10 @@
         <v>1</v>
       </c>
       <c r="G380" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H380" s="5" t="s">
         <v>1366</v>
-      </c>
-      <c r="H380" s="5" t="s">
-        <v>1368</v>
       </c>
       <c r="I380" s="5" t="s">
         <v>909</v>
@@ -33597,19 +33593,19 @@
         <v>0</v>
       </c>
       <c r="N380" s="5" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="O380" s="5">
         <v>4800</v>
       </c>
       <c r="P380" s="5" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="Q380" s="10" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="V380" s="5" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="W380" s="5">
         <v>9999999</v>
@@ -33647,13 +33643,13 @@
         <v>1</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="K381" s="5">
         <v>-31</v>
@@ -33671,10 +33667,10 @@
         <v>0</v>
       </c>
       <c r="P381" s="5" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="Q381" s="10" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="V381" s="5" t="s">
         <v>572</v>
@@ -33715,13 +33711,13 @@
         <v>1</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="K382" s="5">
         <v>-31</v>
@@ -33739,13 +33735,13 @@
         <v>1800</v>
       </c>
       <c r="P382" s="5" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="Q382" s="10" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="V382" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="W382" s="5">
         <v>9999999</v>
@@ -33783,13 +33779,13 @@
         <v>1</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="H383" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I383" s="5" t="s">
         <v>1381</v>
-      </c>
-      <c r="I383" s="5" t="s">
-        <v>1383</v>
       </c>
       <c r="K383" s="5">
         <v>-31</v>
@@ -33807,10 +33803,10 @@
         <v>4800</v>
       </c>
       <c r="P383" s="5" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="Q383" s="10" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="V383" s="5" t="s">
         <v>538</v>
@@ -33851,13 +33847,13 @@
         <v>1</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="H384" s="5" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="K384" s="5">
         <v>-31</v>
@@ -33869,13 +33865,13 @@
         <v>0</v>
       </c>
       <c r="N384" s="5" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="O384" s="5">
         <v>9800</v>
       </c>
       <c r="P384" s="5" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="Q384" s="10" t="s">
         <v>761</v>
@@ -33919,13 +33915,13 @@
         <v>1</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="H385" s="5" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="K385" s="5">
         <v>-31</v>
@@ -33937,19 +33933,19 @@
         <v>0</v>
       </c>
       <c r="N385" s="5" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="O385" s="5">
         <v>19800</v>
       </c>
       <c r="P385" s="5" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="Q385" s="10" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="V385" s="5" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="W385" s="5">
         <v>9999999</v>
@@ -33987,13 +33983,13 @@
         <v>1</v>
       </c>
       <c r="G386" s="48" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H386" s="48" t="s">
+        <v>1391</v>
+      </c>
+      <c r="I386" s="48" t="s">
         <v>1392</v>
-      </c>
-      <c r="H386" s="48" t="s">
-        <v>1393</v>
-      </c>
-      <c r="I386" s="48" t="s">
-        <v>1394</v>
       </c>
       <c r="K386" s="48">
         <v>-31</v>
@@ -34011,10 +34007,10 @@
         <v>1800</v>
       </c>
       <c r="P386" s="48" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="Q386" s="49" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="V386" s="48" t="s">
         <v>538</v>
@@ -34055,13 +34051,13 @@
         <v>1</v>
       </c>
       <c r="G387" s="48" t="s">
+        <v>1395</v>
+      </c>
+      <c r="H387" s="48" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I387" s="48" t="s">
         <v>1397</v>
-      </c>
-      <c r="H387" s="48" t="s">
-        <v>1398</v>
-      </c>
-      <c r="I387" s="48" t="s">
-        <v>1399</v>
       </c>
       <c r="K387" s="48">
         <v>-31</v>
@@ -34073,16 +34069,16 @@
         <v>0</v>
       </c>
       <c r="N387" s="48" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="O387" s="48">
         <v>3000</v>
       </c>
       <c r="P387" s="48" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="Q387" s="49" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="V387" s="48" t="s">
         <v>538</v>
@@ -34123,13 +34119,13 @@
         <v>1</v>
       </c>
       <c r="G388" s="48" t="s">
+        <v>1401</v>
+      </c>
+      <c r="H388" s="48" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I388" s="48" t="s">
         <v>1403</v>
-      </c>
-      <c r="H388" s="48" t="s">
-        <v>1404</v>
-      </c>
-      <c r="I388" s="48" t="s">
-        <v>1405</v>
       </c>
       <c r="K388" s="48">
         <v>-31</v>
@@ -34141,19 +34137,19 @@
         <v>0</v>
       </c>
       <c r="N388" s="48" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="O388" s="48">
         <v>4800</v>
       </c>
       <c r="P388" s="48" t="s">
+        <v>1405</v>
+      </c>
+      <c r="Q388" s="49" t="s">
+        <v>1406</v>
+      </c>
+      <c r="V388" s="48" t="s">
         <v>1407</v>
-      </c>
-      <c r="Q388" s="49" t="s">
-        <v>1408</v>
-      </c>
-      <c r="V388" s="48" t="s">
-        <v>1409</v>
       </c>
       <c r="W388" s="48">
         <v>9999999</v>
@@ -34191,13 +34187,13 @@
         <v>1</v>
       </c>
       <c r="G389" s="48" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H389" s="48" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I389" s="48" t="s">
         <v>1410</v>
-      </c>
-      <c r="H389" s="48" t="s">
-        <v>1411</v>
-      </c>
-      <c r="I389" s="48" t="s">
-        <v>1412</v>
       </c>
       <c r="K389" s="48">
         <v>-31</v>
@@ -34209,16 +34205,16 @@
         <v>0</v>
       </c>
       <c r="N389" s="48" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="O389" s="48">
         <v>4800</v>
       </c>
       <c r="P389" s="48" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="Q389" s="49" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="V389" s="48" t="s">
         <v>538</v>
@@ -34259,13 +34255,13 @@
         <v>1</v>
       </c>
       <c r="G390" s="48" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="H390" s="48" t="s">
         <v>1222</v>
       </c>
       <c r="I390" s="48" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="K390" s="48">
         <v>-31</v>
@@ -34283,10 +34279,10 @@
         <v>9800</v>
       </c>
       <c r="P390" s="48" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="Q390" s="49" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="V390" s="48" t="s">
         <v>538</v>
@@ -34327,13 +34323,13 @@
         <v>1</v>
       </c>
       <c r="G391" s="48" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="H391" s="48" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I391" s="48" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="K391" s="48">
         <v>-31</v>
@@ -34351,10 +34347,10 @@
         <v>19800</v>
       </c>
       <c r="P391" s="48" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="Q391" s="49" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="V391" s="48" t="s">
         <v>538</v>
@@ -34395,13 +34391,13 @@
         <v>1</v>
       </c>
       <c r="G392" s="48" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="H392" s="48" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="I392" s="48" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="K392" s="48">
         <v>-31</v>
@@ -34419,10 +34415,10 @@
         <v>9800</v>
       </c>
       <c r="P392" s="48" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="Q392" s="49" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="V392" s="48" t="s">
         <v>538</v>
@@ -34463,13 +34459,13 @@
         <v>1</v>
       </c>
       <c r="G393" s="48" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="H393" s="48" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="I393" s="48" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="K393" s="48">
         <v>-31</v>
@@ -34487,10 +34483,10 @@
         <v>19800</v>
       </c>
       <c r="P393" s="48" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="Q393" s="49" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="V393" s="48" t="s">
         <v>538</v>
@@ -34531,13 +34527,13 @@
         <v>1</v>
       </c>
       <c r="G394" s="48" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="H394" s="48" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="I394" s="48" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="K394" s="48">
         <v>-31</v>
@@ -34549,16 +34545,16 @@
         <v>0</v>
       </c>
       <c r="N394" s="48" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="O394" s="48">
         <v>49800</v>
       </c>
       <c r="P394" s="48" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="Q394" s="49" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="V394" s="48" t="s">
         <v>538</v>
@@ -34599,10 +34595,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="52" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="I395" s="52" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="K395" s="52">
         <v>-31</v>
@@ -34614,16 +34610,16 @@
         <v>0</v>
       </c>
       <c r="N395" s="52" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="O395" s="52">
         <v>600</v>
       </c>
       <c r="P395" s="52" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Q395" s="53" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="V395" s="52" t="s">
         <v>531</v>
@@ -34661,10 +34657,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="52" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="I396" s="52" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="K396" s="52">
         <v>-31</v>
@@ -34676,16 +34672,16 @@
         <v>0</v>
       </c>
       <c r="N396" s="52" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="O396" s="52">
         <v>2000</v>
       </c>
       <c r="P396" s="52" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="Q396" s="53" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="V396" s="52" t="s">
         <v>531</v>
@@ -34726,7 +34722,7 @@
         <v>291</v>
       </c>
       <c r="I397" s="52" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="K397" s="52">
         <v>-31</v>
@@ -34744,10 +34740,10 @@
         <v>4800</v>
       </c>
       <c r="P397" s="52" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="Q397" s="53" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="V397" s="52" t="s">
         <v>531</v>
@@ -34788,7 +34784,7 @@
         <v>294</v>
       </c>
       <c r="I398" s="52" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="K398" s="52">
         <v>-31</v>
@@ -34806,10 +34802,10 @@
         <v>9800</v>
       </c>
       <c r="P398" s="52" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="Q398" s="53" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="V398" s="52" t="s">
         <v>531</v>
@@ -34847,10 +34843,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="52" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="I399" s="52" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="K399" s="52">
         <v>-31</v>
@@ -34862,16 +34858,16 @@
         <v>0</v>
       </c>
       <c r="N399" s="52" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="O399" s="52">
         <v>19800</v>
       </c>
       <c r="P399" s="52" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Q399" s="53" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="V399" s="52" t="s">
         <v>531</v>
@@ -34909,10 +34905,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="52" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="I400" s="52" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="K400" s="52">
         <v>-31</v>
@@ -34924,16 +34920,16 @@
         <v>0</v>
       </c>
       <c r="N400" s="52" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="O400" s="52">
         <v>49800</v>
       </c>
       <c r="P400" s="52" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="Q400" s="53" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="V400" s="52" t="s">
         <v>531</v>
@@ -34971,10 +34967,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="54" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="I401" s="54" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="K401" s="54">
         <v>-31</v>
@@ -34992,13 +34988,13 @@
         <v>1800</v>
       </c>
       <c r="P401" s="54" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="Q401" s="54" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="V401" s="54" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="W401" s="54">
         <v>99999999</v>
@@ -35036,10 +35032,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="54" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="I402" s="54" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="K402" s="54">
         <v>-31</v>
@@ -35051,19 +35047,19 @@
         <v>0</v>
       </c>
       <c r="N402" s="54" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="O402" s="54">
         <v>4800</v>
       </c>
       <c r="P402" s="54" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="Q402" s="54" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="V402" s="54" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="W402" s="54">
         <v>99999999</v>
@@ -35101,10 +35097,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="54" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="I403" s="54" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="K403" s="54">
         <v>-31</v>
@@ -35122,13 +35118,13 @@
         <v>9800</v>
       </c>
       <c r="P403" s="54" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="Q403" s="54" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="V403" s="54" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="W403" s="54">
         <v>99999999</v>
@@ -35166,10 +35162,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="54" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="I404" s="54" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="K404" s="54">
         <v>-31</v>
@@ -35187,13 +35183,13 @@
         <v>19800</v>
       </c>
       <c r="P404" s="54" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="Q404" s="54" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="V404" s="54" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="W404" s="54">
         <v>99999999</v>
@@ -35231,10 +35227,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="54" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="I405" s="54" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="K405" s="54">
         <v>-31</v>
@@ -35252,13 +35248,13 @@
         <v>29800</v>
       </c>
       <c r="P405" s="54" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="Q405" s="54" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="V405" s="54" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="W405" s="54">
         <v>99999999</v>
@@ -35296,10 +35292,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="54" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="I406" s="54" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="K406" s="54">
         <v>-31</v>
@@ -35317,13 +35313,13 @@
         <v>49800</v>
       </c>
       <c r="P406" s="54" t="s">
+        <v>1494</v>
+      </c>
+      <c r="Q406" s="54" t="s">
+        <v>1495</v>
+      </c>
+      <c r="V406" s="54" t="s">
         <v>1496</v>
-      </c>
-      <c r="Q406" s="54" t="s">
-        <v>1497</v>
-      </c>
-      <c r="V406" s="54" t="s">
-        <v>1498</v>
       </c>
       <c r="W406" s="54">
         <v>99999999</v>
@@ -35361,10 +35357,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="54" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="I407" s="54" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="K407" s="54">
         <v>-31</v>
@@ -35376,19 +35372,19 @@
         <v>0</v>
       </c>
       <c r="N407" s="54" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="O407" s="54">
         <v>99800</v>
       </c>
       <c r="P407" s="54" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="Q407" s="54" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="V407" s="54" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="W407" s="54">
         <v>99999999</v>
@@ -35813,7 +35809,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -35827,7 +35823,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -35841,7 +35837,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -35855,7 +35851,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -35869,7 +35865,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -35883,7 +35879,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -35897,7 +35893,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -35911,7 +35907,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -35925,7 +35921,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -35939,7 +35935,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -35953,7 +35949,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -35967,7 +35963,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -35981,7 +35977,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -35995,7 +35991,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -36009,7 +36005,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -36023,7 +36019,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -36037,7 +36033,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -36051,7 +36047,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -36065,7 +36061,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="51" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="C45" s="50">
         <v>1</v>
@@ -36079,7 +36075,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C46" s="50">
         <v>1</v>
@@ -36093,7 +36089,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C47" s="50">
         <v>1</v>
@@ -36107,7 +36103,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="C48" s="55">
         <v>1</v>
